--- a/100runs/run028/NotionalETEOutput028.xlsx
+++ b/100runs/run028/NotionalETEOutput028.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="21">
   <si>
     <t>uniqueid</t>
   </si>
@@ -55,16 +55,28 @@
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_2.MISSILE_BRAVER_2</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_246.MISSILE_HELLMASKER_246</t>
+    <t>MISSILE_BRAVER_439.MISSILE_BRAVER_439</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_158.MISSILE_HELLMASKER_158</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER_436.MISSILE_BRAVER_436</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_148.MISSILE_SOMERSAULT_148</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
   </si>
   <si>
     <t>MISSILE_HELLMASKER</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -422,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +483,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G2">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H2">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I2">
-        <v>-2127.578102607503</v>
+        <v>1114859.453118107</v>
       </c>
       <c r="J2">
-        <v>2751.452380039781</v>
+        <v>4843225.101417052</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984368.580952349</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +518,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G3">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H3">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I3">
-        <v>-2085.574045680423</v>
+        <v>1114889.067063987</v>
       </c>
       <c r="J3">
-        <v>2684.521115918424</v>
+        <v>4843176.449810466</v>
       </c>
       <c r="K3">
-        <v>249.1053319942582</v>
+        <v>3984672.376811639</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +553,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G4">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H4">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I4">
-        <v>-2042.535677494538</v>
+        <v>1114919.41022604</v>
       </c>
       <c r="J4">
-        <v>2617.589851797066</v>
+        <v>4843127.798203879</v>
       </c>
       <c r="K4">
-        <v>485.7891302774334</v>
+        <v>3984961.024016834</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +588,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G5">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H5">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I5">
-        <v>-1998.437529086648</v>
+        <v>1114950.500560543</v>
       </c>
       <c r="J5">
-        <v>2550.658587675709</v>
+        <v>4843079.146597293</v>
       </c>
       <c r="K5">
-        <v>710.0513948495272</v>
+        <v>3985234.522567935</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +623,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G6">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H6">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I6">
-        <v>-1953.253504343766</v>
+        <v>1114982.356465931</v>
       </c>
       <c r="J6">
-        <v>2483.727323554351</v>
+        <v>4843030.494990707</v>
       </c>
       <c r="K6">
-        <v>921.8921257105383</v>
+        <v>3985492.872464942</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +658,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G7">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H7">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I7">
-        <v>-1906.956864560131</v>
+        <v>1115014.996793682</v>
       </c>
       <c r="J7">
-        <v>2416.796059432993</v>
+        <v>4842981.843384122</v>
       </c>
       <c r="K7">
-        <v>1121.311322860468</v>
+        <v>3985736.073707854</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +693,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G8">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H8">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I8">
-        <v>-1859.520212613952</v>
+        <v>1115048.440859475</v>
       </c>
       <c r="J8">
-        <v>2349.864795311635</v>
+        <v>4842933.191777535</v>
       </c>
       <c r="K8">
-        <v>1308.308986299316</v>
+        <v>3985964.126296672</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +728,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G9">
-        <v>-101.8149468261526</v>
+        <v>4841123.967936886</v>
       </c>
       <c r="H9">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I9">
-        <v>-1810.915476754518</v>
+        <v>1115082.70845462</v>
       </c>
       <c r="J9">
-        <v>2282.933531190277</v>
+        <v>4842884.540170949</v>
       </c>
       <c r="K9">
-        <v>1482.885116027082</v>
+        <v>3986177.030231396</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +763,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>81.75445451061341</v>
+        <v>1116579.06624973</v>
       </c>
       <c r="G10">
-        <v>-85.0024332029479</v>
+        <v>4841140.480754066</v>
       </c>
       <c r="H10">
-        <v>923.1614139236195</v>
+        <v>3985234.164501532</v>
       </c>
       <c r="I10">
-        <v>-1761.113893990082</v>
+        <v>1115117.819857771</v>
       </c>
       <c r="J10">
-        <v>2216.00226706892</v>
+        <v>4842835.888564363</v>
       </c>
       <c r="K10">
-        <v>1645.039712043765</v>
+        <v>3986374.785512024</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +798,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>63.45099388537845</v>
+        <v>1116530.38566144</v>
       </c>
       <c r="G11">
-        <v>-68.18991957974315</v>
+        <v>4841156.993571246</v>
       </c>
       <c r="H11">
-        <v>1137.328649949218</v>
+        <v>3985433.419200103</v>
       </c>
       <c r="I11">
-        <v>-1710.085993066688</v>
+        <v>1115153.795846922</v>
       </c>
       <c r="J11">
-        <v>2149.071002947563</v>
+        <v>4842787.236957777</v>
       </c>
       <c r="K11">
-        <v>1794.772774349365</v>
+        <v>3986557.392138559</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +833,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>52.69862896875597</v>
+        <v>1116501.788257902</v>
       </c>
       <c r="G12">
-        <v>-51.37740595653841</v>
+        <v>4841173.506388426</v>
       </c>
       <c r="H12">
-        <v>1264.897608654333</v>
+        <v>3985552.105488845</v>
       </c>
       <c r="I12">
-        <v>-1657.801577027864</v>
+        <v>1115190.657711708</v>
       </c>
       <c r="J12">
-        <v>2082.139738826204</v>
+        <v>4842738.585351191</v>
       </c>
       <c r="K12">
-        <v>1932.084302943885</v>
+        <v>3986724.850110999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +868,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>45.91094739998237</v>
+        <v>1116483.735478777</v>
       </c>
       <c r="G13">
-        <v>-34.56489233333367</v>
+        <v>4841190.019205606</v>
       </c>
       <c r="H13">
-        <v>1356.062521384575</v>
+        <v>3985636.922557709</v>
       </c>
       <c r="I13">
-        <v>-1604.229705344863</v>
+        <v>1115228.427266003</v>
       </c>
       <c r="J13">
-        <v>2015.208474704847</v>
+        <v>4842689.933744605</v>
       </c>
       <c r="K13">
-        <v>2056.974297827323</v>
+        <v>3986877.159429345</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +903,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>41.17724582673672</v>
+        <v>1116471.145543896</v>
       </c>
       <c r="G14">
-        <v>-17.75237871012892</v>
+        <v>4841206.532022785</v>
       </c>
       <c r="H14">
-        <v>1427.052590085977</v>
+        <v>3985702.969563792</v>
       </c>
       <c r="I14">
-        <v>-1549.338675606888</v>
+        <v>1115267.126860824</v>
       </c>
       <c r="J14">
-        <v>1948.277210583489</v>
+        <v>4842641.282138019</v>
       </c>
       <c r="K14">
-        <v>2169.442758999678</v>
+        <v>3987014.320093596</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>37.64576269490753</v>
+        <v>1116461.753075449</v>
       </c>
       <c r="G15">
-        <v>-0.9398650869241867</v>
+        <v>4841223.044839965</v>
       </c>
       <c r="H15">
-        <v>1485.198962844079</v>
+        <v>3985757.067184847</v>
       </c>
       <c r="I15">
-        <v>-1493.096004760436</v>
+        <v>1115306.779397566</v>
       </c>
       <c r="J15">
-        <v>1881.345946462131</v>
+        <v>4842592.630531433</v>
       </c>
       <c r="K15">
-        <v>2269.48968646095</v>
+        <v>3987136.332103753</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +973,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>34.88463604281594</v>
+        <v>1116454.409476743</v>
       </c>
       <c r="G16">
-        <v>15.87264853628056</v>
+        <v>4841239.557657144</v>
       </c>
       <c r="H16">
-        <v>1534.444696090701</v>
+        <v>3985802.883920946</v>
       </c>
       <c r="I16">
-        <v>-1435.468409886699</v>
+        <v>1115347.408341545</v>
       </c>
       <c r="J16">
-        <v>1814.414682340774</v>
+        <v>4842543.978924846</v>
       </c>
       <c r="K16">
-        <v>2357.115080211142</v>
+        <v>3987243.195459816</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1008,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>32.65068353705006</v>
+        <v>1116448.467970685</v>
       </c>
       <c r="G17">
-        <v>32.68516215948531</v>
+        <v>4841256.070474324</v>
       </c>
       <c r="H17">
-        <v>1577.156400697478</v>
+        <v>3985842.62159504</v>
       </c>
       <c r="I17">
-        <v>-1376.421788505611</v>
+        <v>1115389.037735891</v>
       </c>
       <c r="J17">
-        <v>1747.483418219416</v>
+        <v>4842495.32731826</v>
       </c>
       <c r="K17">
-        <v>2432.31894025025</v>
+        <v>3987334.910161783</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1043,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>30.79570695539365</v>
+        <v>1116443.534403579</v>
       </c>
       <c r="G18">
-        <v>49.49767578269004</v>
+        <v>4841272.583291505</v>
       </c>
       <c r="H18">
-        <v>1614.866609384123</v>
+        <v>3985877.706029076</v>
       </c>
       <c r="I18">
-        <v>-1315.92119839491</v>
+        <v>1115431.692215775</v>
       </c>
       <c r="J18">
-        <v>1680.552154098059</v>
+        <v>4842446.675711675</v>
       </c>
       <c r="K18">
-        <v>2495.101266578278</v>
+        <v>3987411.476209657</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1078,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>29.22375387208599</v>
+        <v>1116439.353576662</v>
       </c>
       <c r="G19">
-        <v>66.3101894058948</v>
+        <v>4841289.096108683</v>
       </c>
       <c r="H19">
-        <v>1648.624834541683</v>
+        <v>3985909.113657539</v>
       </c>
       <c r="I19">
-        <v>-1253.930836912254</v>
+        <v>1115475.397022984</v>
       </c>
       <c r="J19">
-        <v>1613.6208899767</v>
+        <v>4842398.024105089</v>
       </c>
       <c r="K19">
-        <v>2545.462059195223</v>
+        <v>3987472.893603436</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1113,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>27.86966965113505</v>
+        <v>1116435.752202156</v>
       </c>
       <c r="G20">
-        <v>83.12270302909954</v>
+        <v>4841305.608925863</v>
       </c>
       <c r="H20">
-        <v>1679.181389875614</v>
+        <v>3985937.542549537</v>
       </c>
       <c r="I20">
-        <v>-1190.414019808175</v>
+        <v>1115520.178020864</v>
       </c>
       <c r="J20">
-        <v>1546.689625855343</v>
+        <v>4842349.372498502</v>
       </c>
       <c r="K20">
-        <v>2583.401318101085</v>
+        <v>3987519.162343121</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1148,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>26.68748415836466</v>
+        <v>1116432.608016123</v>
       </c>
       <c r="G21">
-        <v>99.93521665230426</v>
+        <v>4841322.121743044</v>
       </c>
       <c r="H21">
-        <v>1707.091314160003</v>
+        <v>3985963.509096305</v>
       </c>
       <c r="I21">
-        <v>-1125.333159517309</v>
+        <v>1115566.061709618</v>
       </c>
       <c r="J21">
-        <v>1479.758361733985</v>
+        <v>4842300.720891916</v>
       </c>
       <c r="K21">
-        <v>2608.919043295866</v>
+        <v>3987550.282428711</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1183,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>25.64372610204749</v>
+        <v>1116429.831997028</v>
       </c>
       <c r="G22">
-        <v>116.747730275509</v>
+        <v>4841338.634560223</v>
       </c>
       <c r="H22">
-        <v>1732.776757169557</v>
+        <v>3985987.406053185</v>
       </c>
       <c r="I22">
-        <v>-1058.649742915073</v>
+        <v>1115613.075241996</v>
       </c>
       <c r="J22">
-        <v>1412.827097612628</v>
+        <v>4842252.06928533</v>
       </c>
       <c r="K22">
-        <v>2622.015234779565</v>
+        <v>3987566.253860207</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1218,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>24.71337556944451</v>
+        <v>1116427.357600946</v>
       </c>
       <c r="G23">
-        <v>133.5602438987138</v>
+        <v>4841355.147377403</v>
       </c>
       <c r="H23">
-        <v>1756.566284269497</v>
+        <v>3986009.539107426</v>
       </c>
       <c r="I23">
-        <v>-990.324308526625</v>
+        <v>1115661.246439357</v>
       </c>
       <c r="J23">
-        <v>1345.89583349127</v>
+        <v>4842203.417678745</v>
       </c>
       <c r="K23">
-        <v>2622.689892552181</v>
+        <v>3987567.076637609</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1253,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>23.87730868657211</v>
+        <v>1116425.133965289</v>
       </c>
       <c r="G24">
-        <v>150.3727575219185</v>
+        <v>4841371.660194583</v>
       </c>
       <c r="H24">
-        <v>1778.720644823024</v>
+        <v>3986030.150852323</v>
       </c>
       <c r="I24">
-        <v>-920.3164231746093</v>
+        <v>1115710.603808136</v>
       </c>
       <c r="J24">
-        <v>1278.964569369912</v>
+        <v>4842154.766072158</v>
       </c>
       <c r="K24">
-        <v>2610.943016613716</v>
+        <v>3987552.750760916</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1288,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>23.12062599059014</v>
+        <v>1116423.121462869</v>
       </c>
       <c r="G25">
-        <v>167.1852711451233</v>
+        <v>4841388.173011762</v>
       </c>
       <c r="H25">
-        <v>1799.450239820862</v>
+        <v>3986049.437038573</v>
       </c>
       <c r="I25">
-        <v>-848.584658051873</v>
+        <v>1115761.176556714</v>
       </c>
       <c r="J25">
-        <v>1212.033305248555</v>
+        <v>4842106.114465572</v>
       </c>
       <c r="K25">
-        <v>2586.774606964168</v>
+        <v>3987523.276230128</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1323,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>22.43152510697627</v>
+        <v>1116421.288703639</v>
       </c>
       <c r="G26">
-        <v>183.997784768328</v>
+        <v>4841404.685828942</v>
       </c>
       <c r="H26">
-        <v>1818.927304145648</v>
+        <v>3986067.557908288</v>
       </c>
       <c r="I26">
-        <v>-775.0865642050036</v>
+        <v>1115812.994612699</v>
       </c>
       <c r="J26">
-        <v>1145.102041127197</v>
+        <v>4842057.462858986</v>
       </c>
       <c r="K26">
-        <v>2550.184663603539</v>
+        <v>3987478.653045246</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1358,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>21.80052018689326</v>
+        <v>1116419.610458669</v>
       </c>
       <c r="G27">
-        <v>200.8102983915327</v>
+        <v>4841421.198646121</v>
       </c>
       <c r="H27">
-        <v>1837.294613546368</v>
+        <v>3986084.64629569</v>
       </c>
       <c r="I27">
-        <v>-699.7786474141617</v>
+        <v>1115866.088640641</v>
       </c>
       <c r="J27">
-        <v>1078.170777005839</v>
+        <v>4842008.811252398</v>
       </c>
       <c r="K27">
-        <v>2501.173186531827</v>
+        <v>3987418.88120627</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1393,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>21.21988883505124</v>
+        <v>1116418.06618918</v>
       </c>
       <c r="G28">
-        <v>217.6228120147375</v>
+        <v>4841437.711463301</v>
       </c>
       <c r="H28">
-        <v>1854.671842073609</v>
+        <v>3986100.813541888</v>
       </c>
       <c r="I28">
-        <v>-622.6163424543586</v>
+        <v>1115920.490060176</v>
       </c>
       <c r="J28">
-        <v>1011.239512884482</v>
+        <v>4841960.159645813</v>
       </c>
       <c r="K28">
-        <v>2439.740175749034</v>
+        <v>3987343.9607132</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1428,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>20.68327217604396</v>
+        <v>1116416.638982862</v>
       </c>
       <c r="G29">
-        <v>234.4353256379422</v>
+        <v>4841454.224280481</v>
       </c>
       <c r="H29">
-        <v>1871.160291989604</v>
+        <v>3986116.153895431</v>
       </c>
       <c r="I29">
-        <v>-543.5539867229384</v>
+        <v>1115976.231064618</v>
       </c>
       <c r="J29">
-        <v>944.3082487631237</v>
+        <v>4841911.508039227</v>
       </c>
       <c r="K29">
-        <v>2365.885631255158</v>
+        <v>3987253.891566035</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1463,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>20.18538038412771</v>
+        <v>1116415.314770691</v>
       </c>
       <c r="G30">
-        <v>251.2478392611469</v>
+        <v>4841470.73709766</v>
       </c>
       <c r="H30">
-        <v>1886.846471876326</v>
+        <v>3986130.747841279</v>
       </c>
       <c r="I30">
-        <v>-462.5447932176658</v>
+        <v>1116033.344640013</v>
       </c>
       <c r="J30">
-        <v>877.3769846417659</v>
+        <v>4841862.856432641</v>
       </c>
       <c r="K30">
-        <v>2279.6095530502</v>
+        <v>3987148.673764776</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1498,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>19.72177233321783</v>
+        <v>1116414.081740877</v>
       </c>
       <c r="G31">
-        <v>268.0603528843517</v>
+        <v>4841487.249914841</v>
       </c>
       <c r="H31">
-        <v>1901.804843944597</v>
+        <v>3986144.664656815</v>
       </c>
       <c r="I31">
-        <v>-379.5408228494175</v>
+        <v>1116091.86458466</v>
       </c>
       <c r="J31">
-        <v>810.4457205204085</v>
+        <v>4841814.204826054</v>
       </c>
       <c r="K31">
-        <v>2180.911941134161</v>
+        <v>3987028.307309422</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1533,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>19.2886882958081</v>
+        <v>1116412.929893904</v>
       </c>
       <c r="G32">
-        <v>284.8728665075565</v>
+        <v>4841503.762732021</v>
       </c>
       <c r="H32">
-        <v>1916.09996179109</v>
+        <v>3986157.964400746</v>
       </c>
       <c r="I32">
-        <v>-294.4929560731037</v>
+        <v>1116151.825529106</v>
       </c>
       <c r="J32">
-        <v>743.5144563990507</v>
+        <v>4841765.553219468</v>
       </c>
       <c r="K32">
-        <v>2069.792795507038</v>
+        <v>3986892.792199973</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1568,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>18.88292123806265</v>
+        <v>1116411.850700221</v>
       </c>
       <c r="G33">
-        <v>301.6853801307612</v>
+        <v>4841520.275549199</v>
       </c>
       <c r="H33">
-        <v>1929.788154022227</v>
+        <v>3986170.699479498</v>
       </c>
       <c r="I33">
-        <v>-207.3508638200254</v>
+        <v>1116213.262956646</v>
       </c>
       <c r="J33">
-        <v>676.5831922776932</v>
+        <v>4841716.901612883</v>
       </c>
       <c r="K33">
-        <v>1946.252116168835</v>
+        <v>3986742.128436431</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1603,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>18.50171661666681</v>
+        <v>1116410.836833739</v>
       </c>
       <c r="G34">
-        <v>318.4978937539659</v>
+        <v>4841536.788366379</v>
       </c>
       <c r="H34">
-        <v>1942.918864810296</v>
+        <v>3986182.91589443</v>
       </c>
       <c r="I34">
-        <v>-118.0629777144698</v>
+        <v>1116276.213224317</v>
       </c>
       <c r="J34">
-        <v>609.6519281563353</v>
+        <v>4841668.250006297</v>
       </c>
       <c r="K34">
-        <v>1810.289903119549</v>
+        <v>3986576.316018793</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1638,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>18.14269351009231</v>
+        <v>1116409.881962068</v>
       </c>
       <c r="G35">
-        <v>335.3104073771707</v>
+        <v>4841553.301183559</v>
       </c>
       <c r="H35">
-        <v>1955.535731994479</v>
+        <v>3986194.654244863</v>
       </c>
       <c r="I35">
-        <v>-26.57645955691426</v>
+        <v>1116340.713584417</v>
       </c>
       <c r="J35">
-        <v>542.7206640349775</v>
+        <v>4841619.59839971</v>
       </c>
       <c r="K35">
-        <v>1661.90615635918</v>
+        <v>3986395.354947062</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1673,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>17.80378191827712</v>
+        <v>1116408.980579755</v>
       </c>
       <c r="G36">
-        <v>352.1229210003755</v>
+        <v>4841569.814000739</v>
       </c>
       <c r="H36">
-        <v>1967.677462070755</v>
+        <v>3986205.950542146</v>
       </c>
       <c r="I36">
-        <v>67.16282994421793</v>
+        <v>1116406.802206545</v>
       </c>
       <c r="J36">
-        <v>475.7893999136201</v>
+        <v>4841570.946793124</v>
       </c>
       <c r="K36">
-        <v>1501.10087588773</v>
+        <v>3986199.245221236</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1708,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>17.48317245570125</v>
+        <v>1116408.12787449</v>
       </c>
       <c r="G37">
-        <v>368.9354346235802</v>
+        <v>4841586.326817919</v>
       </c>
       <c r="H37">
-        <v>1979.37854632683</v>
+        <v>3986216.836875928</v>
       </c>
       <c r="I37">
-        <v>163.2103632107503</v>
+        <v>1116474.518200192</v>
       </c>
       <c r="J37">
-        <v>408.8581357922623</v>
+        <v>4841522.295186538</v>
       </c>
       <c r="K37">
-        <v>1327.874061705198</v>
+        <v>3985987.986841316</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1743,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>17.17927564421011</v>
+        <v>1116407.319618835</v>
       </c>
       <c r="G38">
-        <v>385.7479482467849</v>
+        <v>4841602.839635098</v>
       </c>
       <c r="H38">
-        <v>1990.669851521162</v>
+        <v>3986227.341963703</v>
       </c>
       <c r="I38">
-        <v>261.6229786218616</v>
+        <v>1116543.901637886</v>
       </c>
       <c r="J38">
-        <v>341.9268716709047</v>
+        <v>4841473.643579952</v>
       </c>
       <c r="K38">
-        <v>1142.225713811585</v>
+        <v>3985761.579807301</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1778,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>16.89068871395595</v>
+        <v>1116406.552081929</v>
       </c>
       <c r="G39">
-        <v>402.5604618699897</v>
+        <v>4841619.352452278</v>
       </c>
       <c r="H39">
-        <v>2001.579110589279</v>
+        <v>3986237.491607353</v>
       </c>
       <c r="I39">
-        <v>362.4589141495244</v>
+        <v>1116614.993578901</v>
       </c>
       <c r="J39">
-        <v>274.9956075495469</v>
+        <v>4841424.991973366</v>
       </c>
       <c r="K39">
-        <v>944.1558322068877</v>
+        <v>3985520.024119191</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1813,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>16.61616832945667</v>
+        <v>1116405.821956949</v>
       </c>
       <c r="G40">
-        <v>419.3729754931944</v>
+        <v>4841635.865269458</v>
       </c>
       <c r="H40">
-        <v>2012.131333018867</v>
+        <v>3986247.309074948</v>
       </c>
       <c r="I40">
-        <v>465.7778418221972</v>
+        <v>1116687.836093561</v>
       </c>
       <c r="J40">
-        <v>208.0643434281891</v>
+        <v>4841376.34036678</v>
       </c>
       <c r="K40">
-        <v>733.6644168911093</v>
+        <v>3985263.319776988</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1848,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>16.35460803066621</v>
+        <v>1116405.126301112</v>
       </c>
       <c r="G41">
-        <v>436.1854891163991</v>
+        <v>4841652.378086638</v>
       </c>
       <c r="H41">
-        <v>2022.349150175365</v>
+        <v>3986256.815422022</v>
       </c>
       <c r="I41">
-        <v>571.6409030371374</v>
+        <v>1116762.472288129</v>
       </c>
       <c r="J41">
-        <v>141.1330793068317</v>
+        <v>4841327.688760194</v>
       </c>
       <c r="K41">
-        <v>510.7514678642493</v>
+        <v>3984991.46678069</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1883,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>16.10501945535418</v>
+        <v>1116404.462485732</v>
       </c>
       <c r="G42">
-        <v>452.9980027396039</v>
+        <v>4841668.890903817</v>
       </c>
       <c r="H42">
-        <v>2032.253107572178</v>
+        <v>3986266.029763498</v>
       </c>
       <c r="I42">
-        <v>680.1107447422672</v>
+        <v>1116838.946330325</v>
       </c>
       <c r="J42">
-        <v>74.20181518547385</v>
+        <v>4841279.037153608</v>
       </c>
       <c r="K42">
-        <v>275.4169851263065</v>
+        <v>3984704.465130297</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1918,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>15.86651661607453</v>
+        <v>1116403.828154402</v>
       </c>
       <c r="G43">
-        <v>469.8105163628087</v>
+        <v>4841685.403720997</v>
       </c>
       <c r="H43">
-        <v>2041.861913576237</v>
+        <v>3986274.969505074</v>
       </c>
       <c r="I43">
-        <v>791.2515565089604</v>
+        <v>1116917.303475456</v>
       </c>
       <c r="J43">
-        <v>7.270551064116046</v>
+        <v>4841230.385547021</v>
       </c>
       <c r="K43">
-        <v>27.66096867728187</v>
+        <v>3984402.314825811</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1953,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>15.63830266149131</v>
+        <v>1116403.221187785</v>
       </c>
       <c r="G44">
-        <v>486.6230299860134</v>
+        <v>4841701.916538176</v>
       </c>
       <c r="H44">
-        <v>2051.192652116143</v>
+        <v>3986283.650541116</v>
       </c>
       <c r="I44">
-        <v>905.1291085177356</v>
+        <v>1116997.590093198</v>
       </c>
       <c r="J44">
-        <v>-59.66071305724144</v>
+        <v>4841181.733940436</v>
       </c>
       <c r="K44">
-        <v>-232.5165814828241</v>
+        <v>3984085.015867229</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1988,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>15.41965867120097</v>
+        <v>1116402.639673814</v>
       </c>
       <c r="G45">
-        <v>503.4355436092181</v>
+        <v>4841718.429355357</v>
       </c>
       <c r="H45">
-        <v>2060.260965469688</v>
+        <v>3986292.087424728</v>
       </c>
       <c r="I45">
-        <v>1021.810790479301</v>
+        <v>1117079.853695039</v>
       </c>
       <c r="J45">
-        <v>-126.5919771785993</v>
+        <v>4841133.08233385</v>
       </c>
       <c r="K45">
-        <v>-505.1156653540129</v>
+        <v>3983752.568254554</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2023,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>15.20993412501576</v>
+        <v>1116402.08188234</v>
       </c>
       <c r="G46">
-        <v>520.2480572324229</v>
+        <v>4841734.942172536</v>
       </c>
       <c r="H46">
-        <v>2069.081212043401</v>
+        <v>3986300.293514535</v>
       </c>
       <c r="I46">
-        <v>1141.365651513991</v>
+        <v>1117164.142962395</v>
       </c>
       <c r="J46">
-        <v>-193.523241299957</v>
+        <v>4841084.430727263</v>
       </c>
       <c r="K46">
-        <v>-790.1362829362844</v>
+        <v>3983404.971987783</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2058,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>15.00853875886901</v>
+        <v>1116401.546243473</v>
       </c>
       <c r="G47">
-        <v>537.0605708556276</v>
+        <v>4841751.454989715</v>
       </c>
       <c r="H47">
-        <v>2077.666603140734</v>
+        <v>3986308.281101931</v>
       </c>
       <c r="I47">
-        <v>1263.864441013205</v>
+        <v>1117250.507775414</v>
       </c>
       <c r="J47">
-        <v>-260.4545054213149</v>
+        <v>4841035.779120677</v>
       </c>
       <c r="K47">
-        <v>-1087.578434229637</v>
+        <v>3983042.227066919</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2093,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>14.8149355751118</v>
+        <v>1116401.031328995</v>
       </c>
       <c r="G48">
-        <v>553.8730844788323</v>
+        <v>4841767.967806896</v>
       </c>
       <c r="H48">
-        <v>2086.029321989668</v>
+        <v>3986316.061521824</v>
       </c>
       <c r="I48">
-        <v>1389.379650507016</v>
+        <v>1117338.999242501</v>
       </c>
       <c r="J48">
-        <v>-327.3857695426721</v>
+        <v>4840987.127514091</v>
       </c>
       <c r="K48">
-        <v>-1397.44211923407</v>
+        <v>3982664.33349196</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2128,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>14.62863481871365</v>
+        <v>1116400.535836334</v>
       </c>
       <c r="G49">
-        <v>570.6855981020371</v>
+        <v>4841784.480624075</v>
       </c>
       <c r="H49">
-        <v>2094.180627721443</v>
+        <v>3986323.645249366</v>
       </c>
       <c r="I49">
-        <v>1517.985556562739</v>
+        <v>1117429.669730553</v>
       </c>
       <c r="J49">
-        <v>-394.3170336640299</v>
+        <v>4840938.475907505</v>
       </c>
       <c r="K49">
-        <v>-1719.727337949587</v>
+        <v>3982271.291262907</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2163,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>14.44918876551358</v>
+        <v>1116400.058574704</v>
       </c>
       <c r="G50">
-        <v>587.4981117252419</v>
+        <v>4841800.993441255</v>
       </c>
       <c r="H50">
-        <v>2102.130946527415</v>
+        <v>3986331.041984771</v>
       </c>
       <c r="I50">
-        <v>1649.758264739819</v>
+        <v>1117522.572895958</v>
       </c>
       <c r="J50">
-        <v>-461.2482977853876</v>
+        <v>4840889.824300919</v>
       </c>
       <c r="K50">
-        <v>-2054.434090376187</v>
+        <v>3981863.100379759</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>14.27618719626377</v>
+        <v>1116399.598453073</v>
       </c>
       <c r="G51">
-        <v>604.3106253484466</v>
+        <v>4841817.506258436</v>
       </c>
       <c r="H51">
-        <v>2109.889951845782</v>
+        <v>3986338.260727911</v>
       </c>
       <c r="I51">
-        <v>1784.77575462709</v>
+        <v>1117617.763716342</v>
       </c>
       <c r="J51">
-        <v>-528.1795619067454</v>
+        <v>4840841.172694333</v>
       </c>
       <c r="K51">
-        <v>-2401.562376513868</v>
+        <v>3981439.760842517</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2233,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>14.1092534523268</v>
+        <v>1116399.154469663</v>
       </c>
       <c r="G52">
-        <v>621.1231389716513</v>
+        <v>4841834.019075614</v>
       </c>
       <c r="H52">
-        <v>2117.466635125229</v>
+        <v>3986345.309844158</v>
       </c>
       <c r="I52">
-        <v>1923.117925989025</v>
+        <v>1117715.298523104</v>
       </c>
       <c r="J52">
-        <v>-595.1108260281032</v>
+        <v>4840792.521087747</v>
       </c>
       <c r="K52">
-        <v>-2761.112196362631</v>
+        <v>3981001.27265118</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2268,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>13.94804098671357</v>
+        <v>1116398.725702785</v>
       </c>
       <c r="G53">
-        <v>637.935652594856</v>
+        <v>4841850.531892794</v>
       </c>
       <c r="H53">
-        <v>2124.869368463858</v>
+        <v>3986352.197122657</v>
       </c>
       <c r="I53">
-        <v>2064.86664604828</v>
+        <v>1117815.235034753</v>
       </c>
       <c r="J53">
-        <v>-662.0420901494605</v>
+        <v>4840743.869481161</v>
       </c>
       <c r="K53">
-        <v>-3133.083549922474</v>
+        <v>3980547.635805749</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2303,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>13.79223033859668</v>
+        <v>1116398.311302789</v>
       </c>
       <c r="G54">
-        <v>654.7481662180608</v>
+        <v>4841867.044709974</v>
       </c>
       <c r="H54">
-        <v>2132.105960217718</v>
+        <v>3986358.929828067</v>
       </c>
       <c r="I54">
-        <v>2210.105797932565</v>
+        <v>1117917.63239106</v>
       </c>
       <c r="J54">
-        <v>-728.9733542708183</v>
+        <v>4840695.217874574</v>
       </c>
       <c r="K54">
-        <v>-3517.476437193402</v>
+        <v>3980078.850306224</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2338,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G55">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H55">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I55">
-        <v>-1837.096769022161</v>
+        <v>1114861.099237231</v>
       </c>
       <c r="J55">
-        <v>1426.878201543149</v>
+        <v>4843219.649738723</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984357.562463788</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2373,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G56">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H56">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I56">
-        <v>-1800.827587095542</v>
+        <v>1114890.713226836</v>
       </c>
       <c r="J56">
-        <v>1392.168256181452</v>
+        <v>4843170.998186901</v>
       </c>
       <c r="K56">
-        <v>246.9650525723868</v>
+        <v>3984661.357482952</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2408,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G57">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H57">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I57">
-        <v>-1763.665309931017</v>
+        <v>1114921.056433692</v>
       </c>
       <c r="J57">
-        <v>1357.458310819755</v>
+        <v>4843122.346635078</v>
       </c>
       <c r="K57">
-        <v>481.6152955763538</v>
+        <v>3984950.003889914</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2443,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G58">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H58">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I58">
-        <v>-1725.587945879982</v>
+        <v>1114952.146814101</v>
       </c>
       <c r="J58">
-        <v>1322.748365458058</v>
+        <v>4843073.695083256</v>
       </c>
       <c r="K58">
-        <v>703.9507290119027</v>
+        <v>3985223.501684674</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2478,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G59">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H59">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I59">
-        <v>-1686.572961769724</v>
+        <v>1114984.002766524</v>
       </c>
       <c r="J59">
-        <v>1288.038420096361</v>
+        <v>4843025.043531434</v>
       </c>
       <c r="K59">
-        <v>913.9713528790319</v>
+        <v>3985481.850867233</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2513,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G60">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H60">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I60">
-        <v>-1646.597269568877</v>
+        <v>1115016.64314247</v>
       </c>
       <c r="J60">
-        <v>1253.328474734664</v>
+        <v>4842976.391979611</v>
       </c>
       <c r="K60">
-        <v>1111.677167177743</v>
+        <v>3985725.051437589</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2548,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G61">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H61">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I61">
-        <v>-1605.637212724548</v>
+        <v>1115050.087257644</v>
       </c>
       <c r="J61">
-        <v>1218.618529372966</v>
+        <v>4842927.740427788</v>
       </c>
       <c r="K61">
-        <v>1297.068171908035</v>
+        <v>3985953.103395744</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G62">
-        <v>-87.71975173423216</v>
+        <v>4841121.891160658</v>
       </c>
       <c r="H62">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I62">
-        <v>-1563.668552162988</v>
+        <v>1115084.354903386</v>
       </c>
       <c r="J62">
-        <v>1183.908584011269</v>
+        <v>4842879.088875966</v>
       </c>
       <c r="K62">
-        <v>1470.144367069909</v>
+        <v>3986166.006741697</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2618,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>126.3896565181836</v>
+        <v>1116577.320330152</v>
       </c>
       <c r="G63">
-        <v>-73.23475157434311</v>
+        <v>4841138.403970755</v>
       </c>
       <c r="H63">
-        <v>1037.584463156293</v>
+        <v>3985226.490044981</v>
       </c>
       <c r="I63">
-        <v>-1520.666451945559</v>
+        <v>1115119.466358379</v>
       </c>
       <c r="J63">
-        <v>1149.198638649572</v>
+        <v>4842830.437324144</v>
       </c>
       <c r="K63">
-        <v>1630.905752663362</v>
+        <v>3986363.761475447</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2653,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>98.09311762785042</v>
+        <v>1116528.639817981</v>
       </c>
       <c r="G64">
-        <v>-58.74975141445406</v>
+        <v>4841154.91678085</v>
       </c>
       <c r="H64">
-        <v>1278.297076644787</v>
+        <v>3985425.744359843</v>
       </c>
       <c r="I64">
-        <v>-1476.605464571483</v>
+        <v>1115155.44240065</v>
       </c>
       <c r="J64">
-        <v>1114.488693287875</v>
+        <v>4842781.785772322</v>
       </c>
       <c r="K64">
-        <v>1779.352328688397</v>
+        <v>3986546.367596996</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2688,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>81.47032053740371</v>
+        <v>1116500.042459158</v>
       </c>
       <c r="G65">
-        <v>-44.26475125456501</v>
+        <v>4841171.429590946</v>
       </c>
       <c r="H65">
-        <v>1421.677819748946</v>
+        <v>3985544.430420028</v>
       </c>
       <c r="I65">
-        <v>-1431.459515918686</v>
+        <v>1115192.304319864</v>
       </c>
       <c r="J65">
-        <v>1079.778747926178</v>
+        <v>4842733.134220499</v>
       </c>
       <c r="K65">
-        <v>1915.484095145014</v>
+        <v>3986713.825106343</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2723,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>70.97679150381779</v>
+        <v>1116481.989708262</v>
       </c>
       <c r="G66">
-        <v>-29.77975109467596</v>
+        <v>4841187.942401042</v>
       </c>
       <c r="H66">
-        <v>1524.142346111531</v>
+        <v>3985629.247325558</v>
       </c>
       <c r="I66">
-        <v>-1385.201889813823</v>
+        <v>1115230.073929927</v>
       </c>
       <c r="J66">
-        <v>1045.068802564481</v>
+        <v>4842684.482668676</v>
       </c>
       <c r="K66">
-        <v>2039.301052033212</v>
+        <v>3986866.134003488</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2758,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>63.65864695153003</v>
+        <v>1116469.399793067</v>
       </c>
       <c r="G67">
-        <v>-15.29475093478691</v>
+        <v>4841204.455211137</v>
       </c>
       <c r="H67">
-        <v>1603.931417894667</v>
+        <v>3985695.294204453</v>
       </c>
       <c r="I67">
-        <v>-1337.805212222365</v>
+        <v>1115268.773581889</v>
       </c>
       <c r="J67">
-        <v>1010.358857202783</v>
+        <v>4842635.831116854</v>
       </c>
       <c r="K67">
-        <v>2150.80319935299</v>
+        <v>3987003.294288431</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2793,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>58.19909196209878</v>
+        <v>1116460.007339306</v>
       </c>
       <c r="G68">
-        <v>-0.8097507748978666</v>
+        <v>4841220.968021234</v>
       </c>
       <c r="H68">
-        <v>1669.2848566896</v>
+        <v>3985749.391721331</v>
       </c>
       <c r="I68">
-        <v>-1289.241435049361</v>
+        <v>1115308.426177178</v>
       </c>
       <c r="J68">
-        <v>975.6489118410864</v>
+        <v>4842587.179565032</v>
       </c>
       <c r="K68">
-        <v>2249.99053710435</v>
+        <v>3987125.305961173</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2828,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>53.93048236461496</v>
+        <v>1116452.663752083</v>
       </c>
       <c r="G69">
-        <v>13.67524938499119</v>
+        <v>4841237.480831329</v>
       </c>
       <c r="H69">
-        <v>1724.634448779095</v>
+        <v>3985795.2083692</v>
       </c>
       <c r="I69">
-        <v>-1239.481819541328</v>
+        <v>1115349.055181147</v>
       </c>
       <c r="J69">
-        <v>940.9389664793891</v>
+        <v>4842538.528013209</v>
       </c>
       <c r="K69">
-        <v>2336.863065287291</v>
+        <v>3987232.169021712</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2863,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>50.47686639259437</v>
+        <v>1116446.722255315</v>
       </c>
       <c r="G70">
-        <v>28.16024954488024</v>
+        <v>4841253.993641426</v>
       </c>
       <c r="H70">
-        <v>1772.640139253697</v>
+        <v>3985834.94596677</v>
       </c>
       <c r="I70">
-        <v>-1188.496919279416</v>
+        <v>1115390.68463696</v>
       </c>
       <c r="J70">
-        <v>906.2290211176921</v>
+        <v>4842489.876461387</v>
       </c>
       <c r="K70">
-        <v>2411.420783901812</v>
+        <v>3987323.883470049</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2898,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>47.60913454350729</v>
+        <v>1116441.788695923</v>
       </c>
       <c r="G71">
-        <v>42.64524970476928</v>
+        <v>4841270.506451522</v>
       </c>
       <c r="H71">
-        <v>1815.02441360215</v>
+        <v>3985870.030333243</v>
       </c>
       <c r="I71">
-        <v>-1136.256562753803</v>
+        <v>1115433.339179824</v>
       </c>
       <c r="J71">
-        <v>871.5190757559949</v>
+        <v>4842441.224909565</v>
       </c>
       <c r="K71">
-        <v>2473.663692947915</v>
+        <v>3987400.449306185</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2933,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>45.17894757141805</v>
+        <v>1116437.607875543</v>
       </c>
       <c r="G72">
-        <v>57.13024986465835</v>
+        <v>4841287.019261617</v>
       </c>
       <c r="H72">
-        <v>1852.96686808402</v>
+        <v>3985901.437901224</v>
       </c>
       <c r="I72">
-        <v>-1082.729835508993</v>
+        <v>1115477.044051565</v>
       </c>
       <c r="J72">
-        <v>836.8091303942978</v>
+        <v>4842392.573357743</v>
       </c>
       <c r="K72">
-        <v>2523.5917924256</v>
+        <v>3987461.866530119</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2968,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>43.08557858489434</v>
+        <v>1116434.006506669</v>
       </c>
       <c r="G73">
-        <v>71.61525002454739</v>
+        <v>4841303.532071713</v>
       </c>
       <c r="H73">
-        <v>1887.310815506292</v>
+        <v>3985929.866738475</v>
       </c>
       <c r="I73">
-        <v>-1027.885061849465</v>
+        <v>1115521.825115565</v>
       </c>
       <c r="J73">
-        <v>802.0991850326006</v>
+        <v>4842343.92180592</v>
       </c>
       <c r="K73">
-        <v>2561.205082334865</v>
+        <v>3987508.135141851</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3003,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>41.25795929165288</v>
+        <v>1116430.862325552</v>
       </c>
       <c r="G74">
-        <v>86.10025018443643</v>
+        <v>4841320.04488181</v>
       </c>
       <c r="H74">
-        <v>1918.680090010811</v>
+        <v>3985955.833235239</v>
       </c>
       <c r="I74">
-        <v>-971.6897860948387</v>
+        <v>1115567.708872068</v>
       </c>
       <c r="J74">
-        <v>767.3892396709035</v>
+        <v>4842295.270254098</v>
       </c>
       <c r="K74">
-        <v>2586.503562675711</v>
+        <v>3987539.255141381</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3038,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>39.64434419244273</v>
+        <v>1116428.086310797</v>
       </c>
       <c r="G75">
-        <v>100.5852503443255</v>
+        <v>4841336.557691905</v>
       </c>
       <c r="H75">
-        <v>1947.549165552789</v>
+        <v>3985979.730146101</v>
       </c>
       <c r="I75">
-        <v>-914.1107533734601</v>
+        <v>1115614.722473863</v>
       </c>
       <c r="J75">
-        <v>732.6792943092064</v>
+        <v>4842246.618702276</v>
       </c>
       <c r="K75">
-        <v>2599.487233448139</v>
+        <v>3987555.226528709</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3073,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>38.20605333769873</v>
+        <v>1116425.611918585</v>
       </c>
       <c r="G76">
-        <v>115.0702505042145</v>
+        <v>4841353.070502001</v>
       </c>
       <c r="H76">
-        <v>1974.287332175051</v>
+        <v>3986001.863157719</v>
       </c>
       <c r="I76">
-        <v>-855.1138899430562</v>
+        <v>1115662.893742349</v>
       </c>
       <c r="J76">
-        <v>697.9693489475093</v>
+        <v>4842197.967150453</v>
       </c>
       <c r="K76">
-        <v>2600.156094652147</v>
+        <v>3987556.049303835</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3108,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>36.91352185687583</v>
+        <v>1116423.388286404</v>
       </c>
       <c r="G77">
-        <v>129.5552506641036</v>
+        <v>4841369.583312098</v>
       </c>
       <c r="H77">
-        <v>1999.187658331235</v>
+        <v>3986022.474862923</v>
       </c>
       <c r="I77">
-        <v>-794.664283026798</v>
+        <v>1115712.251184006</v>
       </c>
       <c r="J77">
-        <v>663.259403585812</v>
+        <v>4842149.31559863</v>
       </c>
       <c r="K77">
-        <v>2588.510146287737</v>
+        <v>3987541.723466759</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3143,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>35.7437156779844</v>
+        <v>1116421.375787132</v>
       </c>
       <c r="G78">
-        <v>144.0402508239926</v>
+        <v>4841386.096122193</v>
       </c>
       <c r="H78">
-        <v>2022.486623574878</v>
+        <v>3986041.761012034</v>
       </c>
       <c r="I78">
-        <v>-732.726160152845</v>
+        <v>1115762.824007256</v>
       </c>
       <c r="J78">
-        <v>628.549458224115</v>
+        <v>4842100.664046808</v>
       </c>
       <c r="K78">
-        <v>2564.549388354908</v>
+        <v>3987512.249017481</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3178,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>34.67838872414818</v>
+        <v>1116419.543030767</v>
       </c>
       <c r="G79">
-        <v>158.5252509838817</v>
+        <v>4841402.608932289</v>
       </c>
       <c r="H79">
-        <v>2044.377810778426</v>
+        <v>3986059.881846853</v>
       </c>
       <c r="I79">
-        <v>-669.2628679851493</v>
+        <v>1115814.642139751</v>
       </c>
       <c r="J79">
-        <v>593.8395128624178</v>
+        <v>4842052.012494986</v>
       </c>
       <c r="K79">
-        <v>2528.27382085366</v>
+        <v>3987467.625956002</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3213,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>33.70287618984068</v>
+        <v>1116417.864788422</v>
       </c>
       <c r="G80">
-        <v>173.0102511437707</v>
+        <v>4841419.121742385</v>
       </c>
       <c r="H80">
-        <v>2065.021692310664</v>
+        <v>3986076.970201347</v>
       </c>
       <c r="I80">
-        <v>-604.2368506329826</v>
+        <v>1115867.736246088</v>
       </c>
       <c r="J80">
-        <v>559.1295675007207</v>
+        <v>4842003.360943163</v>
       </c>
       <c r="K80">
-        <v>2479.683443783993</v>
+        <v>3987407.85428232</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3248,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>32.80523950982987</v>
+        <v>1116416.320521347</v>
       </c>
       <c r="G81">
-        <v>187.4952513036598</v>
+        <v>4841435.634552481</v>
       </c>
       <c r="H81">
-        <v>2084.552775456728</v>
+        <v>3986093.137416411</v>
       </c>
       <c r="I81">
-        <v>-537.6096274263581</v>
+        <v>1115922.137745948</v>
       </c>
       <c r="J81">
-        <v>524.4196221390235</v>
+        <v>4841954.709391341</v>
       </c>
       <c r="K81">
-        <v>2418.778257145907</v>
+        <v>3987332.933996437</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3283,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>31.97564807508964</v>
+        <v>1116414.893317261</v>
       </c>
       <c r="G82">
-        <v>201.9802514635489</v>
+        <v>4841452.147362577</v>
       </c>
       <c r="H82">
-        <v>2103.084918586123</v>
+        <v>3986108.477740413</v>
       </c>
       <c r="I82">
-        <v>-469.341770144191</v>
+        <v>1115977.878832693</v>
       </c>
       <c r="J82">
-        <v>489.7096767773264</v>
+        <v>4841906.057839518</v>
       </c>
       <c r="K82">
-        <v>2345.558260939402</v>
+        <v>3987242.865098353</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3318,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>31.20592399167167</v>
+        <v>1116413.56910716</v>
       </c>
       <c r="G83">
-        <v>216.4652516234379</v>
+        <v>4841468.660172673</v>
       </c>
       <c r="H83">
-        <v>2120.71535275642</v>
+        <v>3986123.071658157</v>
       </c>
       <c r="I83">
-        <v>-399.3928796817279</v>
+        <v>1116034.992492419</v>
       </c>
       <c r="J83">
-        <v>454.9997314156292</v>
+        <v>4841857.406287696</v>
       </c>
       <c r="K83">
-        <v>2260.023455164478</v>
+        <v>3987137.647588065</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3353,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>30.48920142695861</v>
+        <v>1116412.336079274</v>
       </c>
       <c r="G84">
-        <v>230.9502517833269</v>
+        <v>4841485.172982769</v>
       </c>
       <c r="H84">
-        <v>2137.527769542975</v>
+        <v>3986136.988446893</v>
       </c>
       <c r="I84">
-        <v>-327.721562143426</v>
+        <v>1116093.512523471</v>
       </c>
       <c r="J84">
-        <v>420.2897860539321</v>
+        <v>4841808.754735873</v>
       </c>
       <c r="K84">
-        <v>2162.173839821136</v>
+        <v>3987017.281465576</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3388,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>29.81966796778034</v>
+        <v>1116411.184234102</v>
       </c>
       <c r="G85">
-        <v>245.435251943216</v>
+        <v>4841501.685792865</v>
       </c>
       <c r="H85">
-        <v>2153.594723764413</v>
+        <v>3986150.288165213</v>
       </c>
       <c r="I85">
-        <v>-254.2854043471467</v>
+        <v>1116153.473556451</v>
       </c>
       <c r="J85">
-        <v>385.5798406922349</v>
+        <v>4841760.103184051</v>
       </c>
       <c r="K85">
-        <v>2052.009414909374</v>
+        <v>3986881.766730885</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3423,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>29.19236564692412</v>
+        <v>1116410.105042106</v>
       </c>
       <c r="G86">
-        <v>259.920252103105</v>
+        <v>4841518.19860296</v>
       </c>
       <c r="H86">
-        <v>2168.979525786586</v>
+        <v>3986163.023219441</v>
       </c>
       <c r="I86">
-        <v>-179.0409487251598</v>
+        <v>1116214.911074705</v>
       </c>
       <c r="J86">
-        <v>350.8698953305379</v>
+        <v>4841711.451632229</v>
       </c>
       <c r="K86">
-        <v>1929.530180429194</v>
+        <v>3986731.103383992</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3458,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>28.6030360324123</v>
+        <v>1116409.09117721</v>
       </c>
       <c r="G87">
-        <v>274.4052522629941</v>
+        <v>4841534.711413057</v>
       </c>
       <c r="H87">
-        <v>2183.73774823654</v>
+        <v>3986175.239610848</v>
       </c>
       <c r="I87">
-        <v>-101.9436676071113</v>
+        <v>1116277.861435324</v>
       </c>
       <c r="J87">
-        <v>316.1599499688407</v>
+        <v>4841662.800080406</v>
       </c>
       <c r="K87">
-        <v>1794.736136380595</v>
+        <v>3986565.291424898</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3493,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>28.04799829907202</v>
+        <v>1116408.136307032</v>
       </c>
       <c r="G88">
-        <v>288.8902524228832</v>
+        <v>4841551.224223152</v>
       </c>
       <c r="H88">
-        <v>2197.918437730889</v>
+        <v>3986186.977938675</v>
       </c>
       <c r="I88">
-        <v>-22.94793686972925</v>
+        <v>1116342.361890661</v>
       </c>
       <c r="J88">
-        <v>281.4500046071435</v>
+        <v>4841614.148528583</v>
       </c>
       <c r="K88">
-        <v>1647.627282763577</v>
+        <v>3986384.330853601</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3528,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>27.52405229593414</v>
+        <v>1116407.234926129</v>
       </c>
       <c r="G89">
-        <v>303.3752525827722</v>
+        <v>4841567.737033248</v>
       </c>
       <c r="H89">
-        <v>2211.565098318053</v>
+        <v>3986198.274214205</v>
       </c>
       <c r="I89">
-        <v>57.99299106232138</v>
+        <v>1116408.45061037</v>
       </c>
       <c r="J89">
-        <v>246.7400592454465</v>
+        <v>4841565.496976761</v>
       </c>
       <c r="K89">
-        <v>1488.20361957814</v>
+        <v>3986188.221670103</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3563,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>27.02840077340844</v>
+        <v>1116406.382222197</v>
       </c>
       <c r="G90">
-        <v>317.8602527426613</v>
+        <v>4841584.249843345</v>
       </c>
       <c r="H90">
-        <v>2224.716496375934</v>
+        <v>3986209.160527023</v>
       </c>
       <c r="I90">
-        <v>140.9270148804104</v>
+        <v>1116476.166704002</v>
       </c>
       <c r="J90">
-        <v>212.0301138837493</v>
+        <v>4841516.845424939</v>
       </c>
       <c r="K90">
-        <v>1316.465146824284</v>
+        <v>3985976.963874402</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3598,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>26.55858645134786</v>
+        <v>1116405.573967805</v>
       </c>
       <c r="G91">
-        <v>332.3452529025503</v>
+        <v>4841600.76265344</v>
       </c>
       <c r="H91">
-        <v>2237.407324503813</v>
+        <v>3986219.665594568</v>
       </c>
       <c r="I91">
-        <v>225.9032127371176</v>
+        <v>1116545.550244142</v>
       </c>
       <c r="J91">
-        <v>177.3201685220522</v>
+        <v>4841468.193873117</v>
       </c>
       <c r="K91">
-        <v>1132.41186450201</v>
+        <v>3985750.5574665</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3633,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>26.11244069441268</v>
+        <v>1116404.806432099</v>
       </c>
       <c r="G92">
-        <v>346.8302530624394</v>
+        <v>4841617.275463536</v>
       </c>
       <c r="H92">
-        <v>2249.668753050221</v>
+        <v>3986229.815218673</v>
       </c>
       <c r="I92">
-        <v>312.9718712893768</v>
+        <v>1116616.642290126</v>
       </c>
       <c r="J92">
-        <v>142.610223160355</v>
+        <v>4841419.542321294</v>
       </c>
       <c r="K92">
-        <v>936.0437726113155</v>
+        <v>3985509.002446396</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3668,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>25.68804134746824</v>
+        <v>1116404.076308261</v>
       </c>
       <c r="G93">
-        <v>361.3152532223284</v>
+        <v>4841633.788273633</v>
       </c>
       <c r="H93">
-        <v>2261.528891352769</v>
+        <v>3986239.632667362</v>
       </c>
       <c r="I93">
-        <v>402.1845154567892</v>
+        <v>1116689.48491234</v>
       </c>
       <c r="J93">
-        <v>107.9002777986578</v>
+        <v>4841370.890769471</v>
       </c>
       <c r="K93">
-        <v>727.3608711522028</v>
+        <v>3985252.29881409</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3703,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>25.28367786023308</v>
+        <v>1116403.380653512</v>
       </c>
       <c r="G94">
-        <v>375.8002533822175</v>
+        <v>4841650.301083728</v>
       </c>
       <c r="H94">
-        <v>2273.013175865804</v>
+        <v>3986249.138996129</v>
       </c>
       <c r="I94">
-        <v>493.593938912695</v>
+        <v>1116764.121217111</v>
       </c>
       <c r="J94">
-        <v>73.1903324369608</v>
+        <v>4841322.239217649</v>
       </c>
       <c r="K94">
-        <v>506.3631601246717</v>
+        <v>3984980.446569582</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3738,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>24.89782225770496</v>
+        <v>1116402.71683917</v>
       </c>
       <c r="G95">
-        <v>390.2852535421065</v>
+        <v>4841666.813893824</v>
       </c>
       <c r="H95">
-        <v>2284.144698656622</v>
+        <v>3986258.353319861</v>
       </c>
       <c r="I95">
-        <v>587.2542353260769</v>
+        <v>1116840.595372223</v>
       </c>
       <c r="J95">
-        <v>38.48038707526359</v>
+        <v>4841273.587665827</v>
       </c>
       <c r="K95">
-        <v>273.050639528721</v>
+        <v>3984693.445712872</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3773,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>24.52910483287947</v>
+        <v>1116402.082508832</v>
       </c>
       <c r="G96">
-        <v>404.7702537019956</v>
+        <v>4841683.326703921</v>
       </c>
       <c r="H96">
-        <v>2294.94448693733</v>
+        <v>3986267.293044221</v>
       </c>
       <c r="I96">
-        <v>683.2208303727448</v>
+        <v>1116918.952633049</v>
       </c>
       <c r="J96">
-        <v>3.770441713566397</v>
+        <v>4841224.936114004</v>
       </c>
       <c r="K96">
-        <v>27.42330936435163</v>
+        <v>3984391.296243961</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3808,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>24.17629368020172</v>
+        <v>1116401.475543164</v>
       </c>
       <c r="G97">
-        <v>419.2552538618846</v>
+        <v>4841699.839514016</v>
       </c>
       <c r="H97">
-        <v>2305.431742137514</v>
+        <v>3986275.974063546</v>
       </c>
       <c r="I97">
-        <v>781.5505145347876</v>
+        <v>1116999.239369337</v>
       </c>
       <c r="J97">
-        <v>-30.93950364813064</v>
+        <v>4841176.284562182</v>
       </c>
       <c r="K97">
-        <v>-230.5188303684359</v>
+        <v>3984073.998162847</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3843,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>23.83827737273588</v>
+        <v>1116400.894030102</v>
       </c>
       <c r="G98">
-        <v>433.7402540217736</v>
+        <v>4841716.352324112</v>
       </c>
       <c r="H98">
-        <v>2315.62404534772</v>
+        <v>3986284.410930911</v>
       </c>
       <c r="I98">
-        <v>882.3014767076704</v>
+        <v>1117081.503092642</v>
       </c>
       <c r="J98">
-        <v>-65.64944900982785</v>
+        <v>4841127.633010359</v>
       </c>
       <c r="K98">
-        <v>-500.7757796696432</v>
+        <v>3983741.551469532</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3878,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>23.51405022799555</v>
+        <v>1116400.3362395</v>
       </c>
       <c r="G99">
-        <v>448.2252541816628</v>
+        <v>4841732.865134208</v>
       </c>
       <c r="H99">
-        <v>2325.537534655288</v>
+        <v>3986292.617004915</v>
       </c>
       <c r="I99">
-        <v>985.5333386348756</v>
+        <v>1117165.792484453</v>
       </c>
       <c r="J99">
-        <v>-100.359394371525</v>
+        <v>4841078.981458536</v>
       </c>
       <c r="K99">
-        <v>-783.3475385392699</v>
+        <v>3983393.956164015</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3913,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>23.20269971744524</v>
+        <v>1116399.800601471</v>
       </c>
       <c r="G100">
-        <v>462.7102543415518</v>
+        <v>4841749.377944304</v>
       </c>
       <c r="H100">
-        <v>2335.187058864551</v>
+        <v>3986300.60457693</v>
       </c>
       <c r="I100">
-        <v>1091.307190190466</v>
+        <v>1117252.157424993</v>
       </c>
       <c r="J100">
-        <v>-135.0693397332223</v>
+        <v>4841030.329906715</v>
       </c>
       <c r="K100">
-        <v>-1078.234106977315</v>
+        <v>3983031.212246296</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3948,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>22.90339566065254</v>
+        <v>1116399.285687798</v>
       </c>
       <c r="G101">
-        <v>477.1952545014408</v>
+        <v>4841765.8907544</v>
       </c>
       <c r="H101">
-        <v>2344.586311277538</v>
+        <v>3986308.384981839</v>
       </c>
       <c r="I101">
-        <v>1199.685625530454</v>
+        <v>1117340.649022739</v>
       </c>
       <c r="J101">
-        <v>-169.7792850949191</v>
+        <v>4840981.678354893</v>
       </c>
       <c r="K101">
-        <v>-1385.435484983777</v>
+        <v>3982653.319716374</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3983,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>22.6153809126955</v>
+        <v>1116398.790195911</v>
       </c>
       <c r="G102">
-        <v>491.6802546613299</v>
+        <v>4841782.403564495</v>
       </c>
       <c r="H102">
-        <v>2353.74794656056</v>
+        <v>3986315.968694777</v>
       </c>
       <c r="I102">
-        <v>1310.732780134358</v>
+        <v>1117431.319644669</v>
       </c>
       <c r="J102">
-        <v>-204.4892304566163</v>
+        <v>4840933.026803071</v>
       </c>
       <c r="K102">
-        <v>-1704.95167255866</v>
+        <v>3982260.278574252</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4018,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>22.33796330697279</v>
+        <v>1116398.312935029</v>
       </c>
       <c r="G103">
-        <v>506.1652548212189</v>
+        <v>4841798.916374592</v>
       </c>
       <c r="H103">
-        <v>2362.683683199676</v>
+        <v>3986323.365415938</v>
       </c>
       <c r="I103">
-        <v>1424.514368758873</v>
+        <v>1117524.222947248</v>
       </c>
       <c r="J103">
-        <v>-239.1991758183135</v>
+        <v>4840884.375251248</v>
       </c>
       <c r="K103">
-        <v>-2036.782669701962</v>
+        <v>3981852.088819927</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4053,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>22.07050865822638</v>
+        <v>1116397.852814117</v>
       </c>
       <c r="G104">
-        <v>520.6502549811079</v>
+        <v>4841815.429184688</v>
       </c>
       <c r="H104">
-        <v>2371.404393626326</v>
+        <v>3986330.584145177</v>
       </c>
       <c r="I104">
-        <v>1541.097724326125</v>
+        <v>1117619.413908184</v>
       </c>
       <c r="J104">
-        <v>-273.9091211800107</v>
+        <v>4840835.723699425</v>
       </c>
       <c r="K104">
-        <v>-2380.928476413683</v>
+        <v>3981428.7504534</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4088,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>21.81243466478118</v>
+        <v>1116397.408831401</v>
       </c>
       <c r="G105">
-        <v>535.1352551409971</v>
+        <v>4841831.941994783</v>
       </c>
       <c r="H105">
-        <v>2379.92018375191</v>
+        <v>3986337.63324785</v>
       </c>
       <c r="I105">
-        <v>1660.551837769501</v>
+        <v>1117716.948858958</v>
       </c>
       <c r="J105">
-        <v>-308.6190665417079</v>
+        <v>4840787.072147603</v>
       </c>
       <c r="K105">
-        <v>-2737.389092693822</v>
+        <v>3980990.263474671</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4123,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>21.56320557656482</v>
+        <v>1116396.980065193</v>
       </c>
       <c r="G106">
-        <v>549.620255300886</v>
+        <v>4841848.45480488</v>
       </c>
       <c r="H106">
-        <v>2388.240463370623</v>
+        <v>3986344.520513086</v>
       </c>
       <c r="I106">
-        <v>1782.947398860648</v>
+        <v>1117816.885518166</v>
       </c>
       <c r="J106">
-        <v>-343.3290119034048</v>
+        <v>4840738.420595781</v>
       </c>
       <c r="K106">
-        <v>-3106.164518542378</v>
+        <v>3980536.627883741</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4158,3741 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>21.32232751780642</v>
+        <v>1116396.565665845</v>
       </c>
       <c r="G107">
-        <v>564.1052554607751</v>
+        <v>4841864.967614976</v>
       </c>
       <c r="H107">
-        <v>2396.374008660494</v>
+        <v>3986351.25320553</v>
       </c>
       <c r="I107">
-        <v>1908.356838041815</v>
+        <v>1117919.283025666</v>
       </c>
       <c r="J107">
-        <v>-378.038957265102</v>
+        <v>4840689.769043958</v>
       </c>
       <c r="K107">
-        <v>-3487.254753959356</v>
+        <v>3980067.843680608</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G108">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H108">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I108">
+        <v>1114860.00497326</v>
+      </c>
+      <c r="J108">
+        <v>4843225.625539576</v>
+      </c>
+      <c r="K108">
+        <v>3984367.333969688</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G109">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H109">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I109">
+        <v>1114889.618933799</v>
+      </c>
+      <c r="J109">
+        <v>4843176.973927725</v>
+      </c>
+      <c r="K109">
+        <v>3984671.129733899</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G110">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H110">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I110">
+        <v>1114919.962110871</v>
+      </c>
+      <c r="J110">
+        <v>4843128.322315874</v>
+      </c>
+      <c r="K110">
+        <v>3984959.776848757</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G111">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H111">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I111">
+        <v>1114951.052460764</v>
+      </c>
+      <c r="J111">
+        <v>4843079.670704022</v>
+      </c>
+      <c r="K111">
+        <v>3985233.275314262</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G112">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H112">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I112">
+        <v>1114982.908381921</v>
+      </c>
+      <c r="J112">
+        <v>4843031.019092171</v>
+      </c>
+      <c r="K112">
+        <v>3985491.625130413</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G113">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H113">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I113">
+        <v>1115015.548725829</v>
+      </c>
+      <c r="J113">
+        <v>4842982.367480321</v>
+      </c>
+      <c r="K113">
+        <v>3985734.826297211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G114">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H114">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I114">
+        <v>1115048.992808177</v>
+      </c>
+      <c r="J114">
+        <v>4842933.715868469</v>
+      </c>
+      <c r="K114">
+        <v>3985962.878814655</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>28</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G115">
+        <v>4841115.71004514</v>
+      </c>
+      <c r="H115">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I115">
+        <v>1115083.260420284</v>
+      </c>
+      <c r="J115">
+        <v>4842885.064256618</v>
+      </c>
+      <c r="K115">
+        <v>3986175.782682746</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>28</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116577.080985992</v>
+      </c>
+      <c r="G116">
+        <v>4841132.222834153</v>
+      </c>
+      <c r="H116">
+        <v>3985225.243713262</v>
+      </c>
+      <c r="I116">
+        <v>1115118.371840815</v>
+      </c>
+      <c r="J116">
+        <v>4842836.412644767</v>
+      </c>
+      <c r="K116">
+        <v>3986373.537901484</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116528.400484256</v>
+      </c>
+      <c r="G117">
+        <v>4841148.735623165</v>
+      </c>
+      <c r="H117">
+        <v>3985424.49796581</v>
+      </c>
+      <c r="I117">
+        <v>1115154.347847774</v>
+      </c>
+      <c r="J117">
+        <v>4842787.761032917</v>
+      </c>
+      <c r="K117">
+        <v>3986556.144470868</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>28</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116499.803131564</v>
+      </c>
+      <c r="G118">
+        <v>4841165.248412178</v>
+      </c>
+      <c r="H118">
+        <v>3985543.183988877</v>
+      </c>
+      <c r="I118">
+        <v>1115191.209730807</v>
+      </c>
+      <c r="J118">
+        <v>4842739.109421065</v>
+      </c>
+      <c r="K118">
+        <v>3986723.602390899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116481.750384537</v>
+      </c>
+      <c r="G119">
+        <v>4841181.761201191</v>
+      </c>
+      <c r="H119">
+        <v>3985628.000867881</v>
+      </c>
+      <c r="I119">
+        <v>1115228.979303798</v>
+      </c>
+      <c r="J119">
+        <v>4842690.457809214</v>
+      </c>
+      <c r="K119">
+        <v>3986875.911661577</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116469.160472041</v>
+      </c>
+      <c r="G120">
+        <v>4841198.273990203</v>
+      </c>
+      <c r="H120">
+        <v>3985694.047726121</v>
+      </c>
+      <c r="I120">
+        <v>1115267.678917776</v>
+      </c>
+      <c r="J120">
+        <v>4842641.806197363</v>
+      </c>
+      <c r="K120">
+        <v>3987013.072282901</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116459.768020293</v>
+      </c>
+      <c r="G121">
+        <v>4841214.786779216</v>
+      </c>
+      <c r="H121">
+        <v>3985748.145226081</v>
+      </c>
+      <c r="I121">
+        <v>1115307.331474145</v>
+      </c>
+      <c r="J121">
+        <v>4842593.154585512</v>
+      </c>
+      <c r="K121">
+        <v>3987135.084254873</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116452.424434644</v>
+      </c>
+      <c r="G122">
+        <v>4841231.299568227</v>
+      </c>
+      <c r="H122">
+        <v>3985793.961859621</v>
+      </c>
+      <c r="I122">
+        <v>1115347.960438235</v>
+      </c>
+      <c r="J122">
+        <v>4842544.502973661</v>
+      </c>
+      <c r="K122">
+        <v>3987241.94757749</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116446.48293915</v>
+      </c>
+      <c r="G123">
+        <v>4841247.81235724</v>
+      </c>
+      <c r="H123">
+        <v>3985833.699444764</v>
+      </c>
+      <c r="I123">
+        <v>1115389.589853188</v>
+      </c>
+      <c r="J123">
+        <v>4842495.851361809</v>
+      </c>
+      <c r="K123">
+        <v>3987333.662250754</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>28</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116441.549380816</v>
+      </c>
+      <c r="G124">
+        <v>4841264.325146253</v>
+      </c>
+      <c r="H124">
+        <v>3985868.783800264</v>
+      </c>
+      <c r="I124">
+        <v>1115432.244354186</v>
+      </c>
+      <c r="J124">
+        <v>4842447.199749959</v>
+      </c>
+      <c r="K124">
+        <v>3987410.228274665</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>28</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116437.368561332</v>
+      </c>
+      <c r="G125">
+        <v>4841280.837935265</v>
+      </c>
+      <c r="H125">
+        <v>3985900.191358423</v>
+      </c>
+      <c r="I125">
+        <v>1115475.949183029</v>
+      </c>
+      <c r="J125">
+        <v>4842398.548138108</v>
+      </c>
+      <c r="K125">
+        <v>3987471.645649222</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>28</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>18</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116433.767193229</v>
+      </c>
+      <c r="G126">
+        <v>4841297.350724278</v>
+      </c>
+      <c r="H126">
+        <v>3985928.620186783</v>
+      </c>
+      <c r="I126">
+        <v>1115520.730203076</v>
+      </c>
+      <c r="J126">
+        <v>4842349.896526257</v>
+      </c>
+      <c r="K126">
+        <v>3987517.914374426</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>28</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116430.623012787</v>
+      </c>
+      <c r="G127">
+        <v>4841313.863513291</v>
+      </c>
+      <c r="H127">
+        <v>3985954.586675427</v>
+      </c>
+      <c r="I127">
+        <v>1115566.613914542</v>
+      </c>
+      <c r="J127">
+        <v>4842301.244914405</v>
+      </c>
+      <c r="K127">
+        <v>3987549.034450277</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>28</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116427.846998627</v>
+      </c>
+      <c r="G128">
+        <v>4841330.376302303</v>
+      </c>
+      <c r="H128">
+        <v>3985978.483578815</v>
+      </c>
+      <c r="I128">
+        <v>1115613.627470192</v>
+      </c>
+      <c r="J128">
+        <v>4842252.593302554</v>
+      </c>
+      <c r="K128">
+        <v>3987565.005876774</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>28</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116425.372606945</v>
+      </c>
+      <c r="G129">
+        <v>4841346.889091316</v>
+      </c>
+      <c r="H129">
+        <v>3986000.616583511</v>
+      </c>
+      <c r="I129">
+        <v>1115661.798691398</v>
+      </c>
+      <c r="J129">
+        <v>4842203.941690704</v>
+      </c>
+      <c r="K129">
+        <v>3987565.828653919</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>28</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116423.148975241</v>
+      </c>
+      <c r="G130">
+        <v>4841363.401880329</v>
+      </c>
+      <c r="H130">
+        <v>3986021.228282269</v>
+      </c>
+      <c r="I130">
+        <v>1115711.156084609</v>
+      </c>
+      <c r="J130">
+        <v>4842155.290078852</v>
+      </c>
+      <c r="K130">
+        <v>3987551.502781709</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>28</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116421.1364764</v>
+      </c>
+      <c r="G131">
+        <v>4841379.91466934</v>
+      </c>
+      <c r="H131">
+        <v>3986040.514425348</v>
+      </c>
+      <c r="I131">
+        <v>1115761.72885822</v>
+      </c>
+      <c r="J131">
+        <v>4842106.638467001</v>
+      </c>
+      <c r="K131">
+        <v>3987522.028260146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>28</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>18</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116419.303720428</v>
+      </c>
+      <c r="G132">
+        <v>4841396.427458353</v>
+      </c>
+      <c r="H132">
+        <v>3986058.6352545</v>
+      </c>
+      <c r="I132">
+        <v>1115813.546939855</v>
+      </c>
+      <c r="J132">
+        <v>4842057.98685515</v>
+      </c>
+      <c r="K132">
+        <v>3987477.40508923</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>28</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>18</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116417.625478442</v>
+      </c>
+      <c r="G133">
+        <v>4841412.940247365</v>
+      </c>
+      <c r="H133">
+        <v>3986075.723603651</v>
+      </c>
+      <c r="I133">
+        <v>1115866.640994078</v>
+      </c>
+      <c r="J133">
+        <v>4842009.335243299</v>
+      </c>
+      <c r="K133">
+        <v>3987417.633268961</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>28</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116416.081211699</v>
+      </c>
+      <c r="G134">
+        <v>4841429.453036378</v>
+      </c>
+      <c r="H134">
+        <v>3986091.890813658</v>
+      </c>
+      <c r="I134">
+        <v>1115921.042440542</v>
+      </c>
+      <c r="J134">
+        <v>4841960.683631448</v>
+      </c>
+      <c r="K134">
+        <v>3987342.712799338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>28</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>18</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116414.654007918</v>
+      </c>
+      <c r="G135">
+        <v>4841445.965825391</v>
+      </c>
+      <c r="H135">
+        <v>3986107.231132863</v>
+      </c>
+      <c r="I135">
+        <v>1115976.783472575</v>
+      </c>
+      <c r="J135">
+        <v>4841912.032019597</v>
+      </c>
+      <c r="K135">
+        <v>3987252.643680362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>28</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116413.329798102</v>
+      </c>
+      <c r="G136">
+        <v>4841462.478614403</v>
+      </c>
+      <c r="H136">
+        <v>3986121.825046043</v>
+      </c>
+      <c r="I136">
+        <v>1116033.897076242</v>
+      </c>
+      <c r="J136">
+        <v>4841863.380407746</v>
+      </c>
+      <c r="K136">
+        <v>3987147.425912032</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>28</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>18</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116412.09677048</v>
+      </c>
+      <c r="G137">
+        <v>4841478.991403416</v>
+      </c>
+      <c r="H137">
+        <v>3986135.741830427</v>
+      </c>
+      <c r="I137">
+        <v>1116092.417049856</v>
+      </c>
+      <c r="J137">
+        <v>4841814.728795894</v>
+      </c>
+      <c r="K137">
+        <v>3987027.05949435</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>28</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116410.944925555</v>
+      </c>
+      <c r="G138">
+        <v>4841495.504192429</v>
+      </c>
+      <c r="H138">
+        <v>3986149.041544587</v>
+      </c>
+      <c r="I138">
+        <v>1116152.378023983</v>
+      </c>
+      <c r="J138">
+        <v>4841766.077184044</v>
+      </c>
+      <c r="K138">
+        <v>3986891.544427313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>18</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116409.865733791</v>
+      </c>
+      <c r="G139">
+        <v>4841512.016981441</v>
+      </c>
+      <c r="H139">
+        <v>3986161.776594833</v>
+      </c>
+      <c r="I139">
+        <v>1116213.815481934</v>
+      </c>
+      <c r="J139">
+        <v>4841717.425572192</v>
+      </c>
+      <c r="K139">
+        <v>3986740.880710924</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>28</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>18</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116408.851869112</v>
+      </c>
+      <c r="G140">
+        <v>4841528.529770453</v>
+      </c>
+      <c r="H140">
+        <v>3986173.992982418</v>
+      </c>
+      <c r="I140">
+        <v>1116276.765780766</v>
+      </c>
+      <c r="J140">
+        <v>4841668.773960342</v>
+      </c>
+      <c r="K140">
+        <v>3986575.06834518</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>28</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116407.896999138</v>
+      </c>
+      <c r="G141">
+        <v>4841545.042559464</v>
+      </c>
+      <c r="H141">
+        <v>3986185.731306575</v>
+      </c>
+      <c r="I141">
+        <v>1116341.266172793</v>
+      </c>
+      <c r="J141">
+        <v>4841620.12234849</v>
+      </c>
+      <c r="K141">
+        <v>3986394.107330084</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>28</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>18</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116406.995618428</v>
+      </c>
+      <c r="G142">
+        <v>4841561.555348477</v>
+      </c>
+      <c r="H142">
+        <v>3986197.027578572</v>
+      </c>
+      <c r="I142">
+        <v>1116407.354827635</v>
+      </c>
+      <c r="J142">
+        <v>4841571.47073664</v>
+      </c>
+      <c r="K142">
+        <v>3986197.997665634</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>28</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116406.142914679</v>
+      </c>
+      <c r="G143">
+        <v>4841578.06813749</v>
+      </c>
+      <c r="H143">
+        <v>3986207.913887985</v>
+      </c>
+      <c r="I143">
+        <v>1116475.070854802</v>
+      </c>
+      <c r="J143">
+        <v>4841522.819124788</v>
+      </c>
+      <c r="K143">
+        <v>3985986.739351831</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>28</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116405.33466046</v>
+      </c>
+      <c r="G144">
+        <v>4841594.580926502</v>
+      </c>
+      <c r="H144">
+        <v>3986218.418952245</v>
+      </c>
+      <c r="I144">
+        <v>1116544.454326841</v>
+      </c>
+      <c r="J144">
+        <v>4841474.167512937</v>
+      </c>
+      <c r="K144">
+        <v>3985760.332388674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>28</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>18</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116404.567124919</v>
+      </c>
+      <c r="G145">
+        <v>4841611.093715515</v>
+      </c>
+      <c r="H145">
+        <v>3986228.568573175</v>
+      </c>
+      <c r="I145">
+        <v>1116615.546303046</v>
+      </c>
+      <c r="J145">
+        <v>4841425.515901086</v>
+      </c>
+      <c r="K145">
+        <v>3985518.776776165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>28</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>18</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116403.837001238</v>
+      </c>
+      <c r="G146">
+        <v>4841627.606504528</v>
+      </c>
+      <c r="H146">
+        <v>3986238.386018794</v>
+      </c>
+      <c r="I146">
+        <v>1116688.388853763</v>
+      </c>
+      <c r="J146">
+        <v>4841376.864289235</v>
+      </c>
+      <c r="K146">
+        <v>3985262.072514302</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>28</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116403.141346638</v>
+      </c>
+      <c r="G147">
+        <v>4841644.11929354</v>
+      </c>
+      <c r="H147">
+        <v>3986247.892344588</v>
+      </c>
+      <c r="I147">
+        <v>1116763.025085276</v>
+      </c>
+      <c r="J147">
+        <v>4841328.212677384</v>
+      </c>
+      <c r="K147">
+        <v>3984990.219603085</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>28</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>18</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116402.477532438</v>
+      </c>
+      <c r="G148">
+        <v>4841660.632082553</v>
+      </c>
+      <c r="H148">
+        <v>3986257.106665439</v>
+      </c>
+      <c r="I148">
+        <v>1116839.499165327</v>
+      </c>
+      <c r="J148">
+        <v>4841279.561065533</v>
+      </c>
+      <c r="K148">
+        <v>3984703.218042515</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>28</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116401.843202235</v>
+      </c>
+      <c r="G149">
+        <v>4841677.144871566</v>
+      </c>
+      <c r="H149">
+        <v>3986266.046387003</v>
+      </c>
+      <c r="I149">
+        <v>1116917.856349244</v>
+      </c>
+      <c r="J149">
+        <v>4841230.909453682</v>
+      </c>
+      <c r="K149">
+        <v>3984401.067832592</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>28</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>18</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116401.236236698</v>
+      </c>
+      <c r="G150">
+        <v>4841693.657660577</v>
+      </c>
+      <c r="H150">
+        <v>3986274.727403614</v>
+      </c>
+      <c r="I150">
+        <v>1116998.143006728</v>
+      </c>
+      <c r="J150">
+        <v>4841182.257841831</v>
+      </c>
+      <c r="K150">
+        <v>3984083.768973315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>28</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>18</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116400.654723761</v>
+      </c>
+      <c r="G151">
+        <v>4841710.17044959</v>
+      </c>
+      <c r="H151">
+        <v>3986283.16426834</v>
+      </c>
+      <c r="I151">
+        <v>1117080.40664929</v>
+      </c>
+      <c r="J151">
+        <v>4841133.60622998</v>
+      </c>
+      <c r="K151">
+        <v>3983751.321464685</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>28</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>18</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116400.096933278</v>
+      </c>
+      <c r="G152">
+        <v>4841726.683238602</v>
+      </c>
+      <c r="H152">
+        <v>3986291.370339777</v>
+      </c>
+      <c r="I152">
+        <v>1117164.695958369</v>
+      </c>
+      <c r="J152">
+        <v>4841084.954618128</v>
+      </c>
+      <c r="K152">
+        <v>3983403.725306702</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>28</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116399.561295364</v>
+      </c>
+      <c r="G153">
+        <v>4841743.196027615</v>
+      </c>
+      <c r="H153">
+        <v>3986299.357909294</v>
+      </c>
+      <c r="I153">
+        <v>1117251.060814139</v>
+      </c>
+      <c r="J153">
+        <v>4841036.303006277</v>
+      </c>
+      <c r="K153">
+        <v>3983040.980499365</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>28</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116399.046381801</v>
+      </c>
+      <c r="G154">
+        <v>4841759.708816628</v>
+      </c>
+      <c r="H154">
+        <v>3986307.13831177</v>
+      </c>
+      <c r="I154">
+        <v>1117339.552325028</v>
+      </c>
+      <c r="J154">
+        <v>4840987.651394427</v>
+      </c>
+      <c r="K154">
+        <v>3982663.087042675</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>28</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>18</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116398.550890021</v>
+      </c>
+      <c r="G155">
+        <v>4841776.22160564</v>
+      </c>
+      <c r="H155">
+        <v>3986314.722022337</v>
+      </c>
+      <c r="I155">
+        <v>1117430.222857963</v>
+      </c>
+      <c r="J155">
+        <v>4840938.999782575</v>
+      </c>
+      <c r="K155">
+        <v>3982270.044936632</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>28</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116398.07362924</v>
+      </c>
+      <c r="G156">
+        <v>4841792.734394653</v>
+      </c>
+      <c r="H156">
+        <v>3986322.118741184</v>
+      </c>
+      <c r="I156">
+        <v>1117523.126069355</v>
+      </c>
+      <c r="J156">
+        <v>4840890.348170724</v>
+      </c>
+      <c r="K156">
+        <v>3981861.854181235</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>28</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>18</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116397.613508427</v>
+      </c>
+      <c r="G157">
+        <v>4841809.247183666</v>
+      </c>
+      <c r="H157">
+        <v>3986329.337468166</v>
+      </c>
+      <c r="I157">
+        <v>1117618.316936858</v>
+      </c>
+      <c r="J157">
+        <v>4840841.696558873</v>
+      </c>
+      <c r="K157">
+        <v>3981438.514776485</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>28</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116397.169525806</v>
+      </c>
+      <c r="G158">
+        <v>4841825.759972678</v>
+      </c>
+      <c r="H158">
+        <v>3986336.386568633</v>
+      </c>
+      <c r="I158">
+        <v>1117715.8517919</v>
+      </c>
+      <c r="J158">
+        <v>4840793.044947023</v>
+      </c>
+      <c r="K158">
+        <v>3981000.02672238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>28</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>18</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116396.740759691</v>
+      </c>
+      <c r="G159">
+        <v>4841842.27276169</v>
+      </c>
+      <c r="H159">
+        <v>3986343.273831716</v>
+      </c>
+      <c r="I159">
+        <v>1117815.788353017</v>
+      </c>
+      <c r="J159">
+        <v>4840744.393335171</v>
+      </c>
+      <c r="K159">
+        <v>3980546.390018924</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>28</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>18</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116396.326360431</v>
+      </c>
+      <c r="G160">
+        <v>4841858.785550703</v>
+      </c>
+      <c r="H160">
+        <v>3986350.006522055</v>
+      </c>
+      <c r="I160">
+        <v>1117918.185760011</v>
+      </c>
+      <c r="J160">
+        <v>4840695.74172332</v>
+      </c>
+      <c r="K160">
+        <v>3980077.604666114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>28</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" t="s">
+        <v>20</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G161">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H161">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I161">
+        <v>1114859.972365352</v>
+      </c>
+      <c r="J161">
+        <v>4843228.167812598</v>
+      </c>
+      <c r="K161">
+        <v>3984365.224431104</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>28</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" t="s">
+        <v>20</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G162">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H162">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I162">
+        <v>1114889.586325025</v>
+      </c>
+      <c r="J162">
+        <v>4843179.51617521</v>
+      </c>
+      <c r="K162">
+        <v>3984669.02003447</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>28</v>
+      </c>
+      <c r="B163" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G163">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H163">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I163">
+        <v>1114919.92950121</v>
+      </c>
+      <c r="J163">
+        <v>4843130.864537819</v>
+      </c>
+      <c r="K163">
+        <v>3984957.666996502</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>28</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G164">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H164">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I164">
+        <v>1114951.019850194</v>
+      </c>
+      <c r="J164">
+        <v>4843082.212900431</v>
+      </c>
+      <c r="K164">
+        <v>3985231.165317202</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>28</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G165">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H165">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I165">
+        <v>1114982.875770418</v>
+      </c>
+      <c r="J165">
+        <v>4843033.561263043</v>
+      </c>
+      <c r="K165">
+        <v>3985489.514996569</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>28</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G166">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H166">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I166">
+        <v>1115015.516113371</v>
+      </c>
+      <c r="J166">
+        <v>4842984.909625653</v>
+      </c>
+      <c r="K166">
+        <v>3985732.716034603</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>28</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G167">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H167">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I167">
+        <v>1115048.960194741</v>
+      </c>
+      <c r="J167">
+        <v>4842936.257988264</v>
+      </c>
+      <c r="K167">
+        <v>3985960.768431304</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>28</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G168">
+        <v>4841123.404220432</v>
+      </c>
+      <c r="H168">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I168">
+        <v>1115083.227805847</v>
+      </c>
+      <c r="J168">
+        <v>4842887.606350875</v>
+      </c>
+      <c r="K168">
+        <v>3986173.672186673</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>28</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>17</v>
+      </c>
+      <c r="D169" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116578.515321435</v>
+      </c>
+      <c r="G169">
+        <v>4841139.91703569</v>
+      </c>
+      <c r="H169">
+        <v>3985224.01933426</v>
+      </c>
+      <c r="I169">
+        <v>1115118.33922535</v>
+      </c>
+      <c r="J169">
+        <v>4842838.954713487</v>
+      </c>
+      <c r="K169">
+        <v>3986371.427300708</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>28</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116529.834757165</v>
+      </c>
+      <c r="G170">
+        <v>4841156.429850946</v>
+      </c>
+      <c r="H170">
+        <v>3985423.273525592</v>
+      </c>
+      <c r="I170">
+        <v>1115154.315231257</v>
+      </c>
+      <c r="J170">
+        <v>4842790.303076098</v>
+      </c>
+      <c r="K170">
+        <v>3986554.033773411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>28</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116501.237367737</v>
+      </c>
+      <c r="G171">
+        <v>4841172.942666203</v>
+      </c>
+      <c r="H171">
+        <v>3985541.959512195</v>
+      </c>
+      <c r="I171">
+        <v>1115191.177113212</v>
+      </c>
+      <c r="J171">
+        <v>4842741.651438708</v>
+      </c>
+      <c r="K171">
+        <v>3986721.49160478</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>28</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>17</v>
+      </c>
+      <c r="D172" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116483.184597519</v>
+      </c>
+      <c r="G172">
+        <v>4841189.45548146</v>
+      </c>
+      <c r="H172">
+        <v>3985626.776365141</v>
+      </c>
+      <c r="I172">
+        <v>1115228.946685098</v>
+      </c>
+      <c r="J172">
+        <v>4842692.99980132</v>
+      </c>
+      <c r="K172">
+        <v>3986873.800794817</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>28</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>17</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116470.59466885</v>
+      </c>
+      <c r="G173">
+        <v>4841205.968296717</v>
+      </c>
+      <c r="H173">
+        <v>3985692.823203089</v>
+      </c>
+      <c r="I173">
+        <v>1115267.646297944</v>
+      </c>
+      <c r="J173">
+        <v>4842644.348163931</v>
+      </c>
+      <c r="K173">
+        <v>3987010.961343521</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>28</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" t="s">
+        <v>20</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116461.202205038</v>
+      </c>
+      <c r="G174">
+        <v>4841222.481111974</v>
+      </c>
+      <c r="H174">
+        <v>3985746.920686428</v>
+      </c>
+      <c r="I174">
+        <v>1115307.298853154</v>
+      </c>
+      <c r="J174">
+        <v>4842595.696526542</v>
+      </c>
+      <c r="K174">
+        <v>3987132.973250892</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>28</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116453.858609955</v>
+      </c>
+      <c r="G175">
+        <v>4841238.99392723</v>
+      </c>
+      <c r="H175">
+        <v>3985792.737305892</v>
+      </c>
+      <c r="I175">
+        <v>1115347.927816055</v>
+      </c>
+      <c r="J175">
+        <v>4842547.044889153</v>
+      </c>
+      <c r="K175">
+        <v>3987239.836516931</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>28</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" t="s">
+        <v>20</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116447.917106828</v>
+      </c>
+      <c r="G176">
+        <v>4841255.506742488</v>
+      </c>
+      <c r="H176">
+        <v>3985832.474878827</v>
+      </c>
+      <c r="I176">
+        <v>1115389.557229791</v>
+      </c>
+      <c r="J176">
+        <v>4842498.393251764</v>
+      </c>
+      <c r="K176">
+        <v>3987331.551141636</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>28</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116442.983542157</v>
+      </c>
+      <c r="G177">
+        <v>4841272.019557745</v>
+      </c>
+      <c r="H177">
+        <v>3985867.559223548</v>
+      </c>
+      <c r="I177">
+        <v>1115432.211729541</v>
+      </c>
+      <c r="J177">
+        <v>4842449.741614375</v>
+      </c>
+      <c r="K177">
+        <v>3987408.117125009</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>28</v>
+      </c>
+      <c r="B178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116438.802717303</v>
+      </c>
+      <c r="G178">
+        <v>4841288.532373001</v>
+      </c>
+      <c r="H178">
+        <v>3985898.966772058</v>
+      </c>
+      <c r="I178">
+        <v>1115475.916557106</v>
+      </c>
+      <c r="J178">
+        <v>4842401.089976987</v>
+      </c>
+      <c r="K178">
+        <v>3987469.534467049</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>28</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116435.201344574</v>
+      </c>
+      <c r="G179">
+        <v>4841305.045188258</v>
+      </c>
+      <c r="H179">
+        <v>3985927.395591684</v>
+      </c>
+      <c r="I179">
+        <v>1115520.697575842</v>
+      </c>
+      <c r="J179">
+        <v>4842352.438339597</v>
+      </c>
+      <c r="K179">
+        <v>3987515.803167756</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>28</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116432.057160092</v>
+      </c>
+      <c r="G180">
+        <v>4841321.558003516</v>
+      </c>
+      <c r="H180">
+        <v>3985953.36207235</v>
+      </c>
+      <c r="I180">
+        <v>1115566.581285967</v>
+      </c>
+      <c r="J180">
+        <v>4842303.786702208</v>
+      </c>
+      <c r="K180">
+        <v>3987546.92322713</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>28</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>17</v>
+      </c>
+      <c r="D181" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116429.281142366</v>
+      </c>
+      <c r="G181">
+        <v>4841338.070818772</v>
+      </c>
+      <c r="H181">
+        <v>3985977.258968396</v>
+      </c>
+      <c r="I181">
+        <v>1115613.594840242</v>
+      </c>
+      <c r="J181">
+        <v>4842255.13506482</v>
+      </c>
+      <c r="K181">
+        <v>3987562.894645171</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>28</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" t="s">
+        <v>20</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116426.806747506</v>
+      </c>
+      <c r="G182">
+        <v>4841354.583634029</v>
+      </c>
+      <c r="H182">
+        <v>3985999.391966292</v>
+      </c>
+      <c r="I182">
+        <v>1115661.766060038</v>
+      </c>
+      <c r="J182">
+        <v>4842206.483427431</v>
+      </c>
+      <c r="K182">
+        <v>3987563.71742188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>17</v>
+      </c>
+      <c r="D183" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116424.583112945</v>
+      </c>
+      <c r="G183">
+        <v>4841371.096449287</v>
+      </c>
+      <c r="H183">
+        <v>3986020.003658718</v>
+      </c>
+      <c r="I183">
+        <v>1115711.123451806</v>
+      </c>
+      <c r="J183">
+        <v>4842157.831790041</v>
+      </c>
+      <c r="K183">
+        <v>3987549.391557255</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116422.570611519</v>
+      </c>
+      <c r="G184">
+        <v>4841387.609264543</v>
+      </c>
+      <c r="H184">
+        <v>3986039.289795872</v>
+      </c>
+      <c r="I184">
+        <v>1115761.696223938</v>
+      </c>
+      <c r="J184">
+        <v>4842109.180152653</v>
+      </c>
+      <c r="K184">
+        <v>3987519.917051298</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>28</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116420.737853193</v>
+      </c>
+      <c r="G185">
+        <v>4841404.1220798</v>
+      </c>
+      <c r="H185">
+        <v>3986057.410619456</v>
+      </c>
+      <c r="I185">
+        <v>1115813.514304057</v>
+      </c>
+      <c r="J185">
+        <v>4842060.528515263</v>
+      </c>
+      <c r="K185">
+        <v>3987475.293904007</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>28</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" t="s">
+        <v>20</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116419.059609051</v>
+      </c>
+      <c r="G186">
+        <v>4841420.634895056</v>
+      </c>
+      <c r="H186">
+        <v>3986074.498963357</v>
+      </c>
+      <c r="I186">
+        <v>1115866.608356728</v>
+      </c>
+      <c r="J186">
+        <v>4842011.876877874</v>
+      </c>
+      <c r="K186">
+        <v>3987415.522115384</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>28</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" t="s">
+        <v>20</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116417.515340324</v>
+      </c>
+      <c r="G187">
+        <v>4841437.147710314</v>
+      </c>
+      <c r="H187">
+        <v>3986090.666168398</v>
+      </c>
+      <c r="I187">
+        <v>1115921.0098016</v>
+      </c>
+      <c r="J187">
+        <v>4841963.225240486</v>
+      </c>
+      <c r="K187">
+        <v>3987340.601685429</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>28</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>17</v>
+      </c>
+      <c r="D188" t="s">
+        <v>20</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116416.08813471</v>
+      </c>
+      <c r="G188">
+        <v>4841453.660525571</v>
+      </c>
+      <c r="H188">
+        <v>3986106.006482889</v>
+      </c>
+      <c r="I188">
+        <v>1115976.750832004</v>
+      </c>
+      <c r="J188">
+        <v>4841914.573603096</v>
+      </c>
+      <c r="K188">
+        <v>3987250.53261414</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>28</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>20</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116414.763923192</v>
+      </c>
+      <c r="G189">
+        <v>4841470.173340827</v>
+      </c>
+      <c r="H189">
+        <v>3986120.600391585</v>
+      </c>
+      <c r="I189">
+        <v>1116033.864434</v>
+      </c>
+      <c r="J189">
+        <v>4841865.921965708</v>
+      </c>
+      <c r="K189">
+        <v>3987145.314901518</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>28</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>20</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116413.530893987</v>
+      </c>
+      <c r="G190">
+        <v>4841486.686156085</v>
+      </c>
+      <c r="H190">
+        <v>3986134.517171694</v>
+      </c>
+      <c r="I190">
+        <v>1116092.384405902</v>
+      </c>
+      <c r="J190">
+        <v>4841817.270328319</v>
+      </c>
+      <c r="K190">
+        <v>3987024.948547564</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>28</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>20</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116412.379047582</v>
+      </c>
+      <c r="G191">
+        <v>4841503.198971341</v>
+      </c>
+      <c r="H191">
+        <v>3986147.816881767</v>
+      </c>
+      <c r="I191">
+        <v>1116152.345378275</v>
+      </c>
+      <c r="J191">
+        <v>4841768.618690929</v>
+      </c>
+      <c r="K191">
+        <v>3986889.433552276</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116411.299854432</v>
+      </c>
+      <c r="G192">
+        <v>4841519.711786598</v>
+      </c>
+      <c r="H192">
+        <v>3986160.551928101</v>
+      </c>
+      <c r="I192">
+        <v>1116213.782834429</v>
+      </c>
+      <c r="J192">
+        <v>4841719.967053541</v>
+      </c>
+      <c r="K192">
+        <v>3986738.769915656</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>28</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116410.28598845</v>
+      </c>
+      <c r="G193">
+        <v>4841536.224601856</v>
+      </c>
+      <c r="H193">
+        <v>3986172.768311933</v>
+      </c>
+      <c r="I193">
+        <v>1116276.73313142</v>
+      </c>
+      <c r="J193">
+        <v>4841671.315416153</v>
+      </c>
+      <c r="K193">
+        <v>3986572.957637703</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>28</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116409.33111725</v>
+      </c>
+      <c r="G194">
+        <v>4841552.737417111</v>
+      </c>
+      <c r="H194">
+        <v>3986184.506632484</v>
+      </c>
+      <c r="I194">
+        <v>1116341.233521561</v>
+      </c>
+      <c r="J194">
+        <v>4841622.663778762</v>
+      </c>
+      <c r="K194">
+        <v>3986391.996718417</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>28</v>
+      </c>
+      <c r="B195" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>20</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116408.429735382</v>
+      </c>
+      <c r="G195">
+        <v>4841569.250232369</v>
+      </c>
+      <c r="H195">
+        <v>3986195.80290101</v>
+      </c>
+      <c r="I195">
+        <v>1116407.32217447</v>
+      </c>
+      <c r="J195">
+        <v>4841574.012141374</v>
+      </c>
+      <c r="K195">
+        <v>3986195.887157799</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>28</v>
+      </c>
+      <c r="B196" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116407.577030537</v>
+      </c>
+      <c r="G196">
+        <v>4841585.763047626</v>
+      </c>
+      <c r="H196">
+        <v>3986206.689207078</v>
+      </c>
+      <c r="I196">
+        <v>1116475.038199656</v>
+      </c>
+      <c r="J196">
+        <v>4841525.360503986</v>
+      </c>
+      <c r="K196">
+        <v>3985984.628955847</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>28</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116406.768775281</v>
+      </c>
+      <c r="G197">
+        <v>4841602.275862883</v>
+      </c>
+      <c r="H197">
+        <v>3986217.194268111</v>
+      </c>
+      <c r="I197">
+        <v>1116544.421669665</v>
+      </c>
+      <c r="J197">
+        <v>4841476.708866596</v>
+      </c>
+      <c r="K197">
+        <v>3985758.222112563</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>28</v>
+      </c>
+      <c r="B198" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116406.001238754</v>
+      </c>
+      <c r="G198">
+        <v>4841618.788678139</v>
+      </c>
+      <c r="H198">
+        <v>3986227.343885923</v>
+      </c>
+      <c r="I198">
+        <v>1116615.513643791</v>
+      </c>
+      <c r="J198">
+        <v>4841428.057229207</v>
+      </c>
+      <c r="K198">
+        <v>3985516.666627945</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>28</v>
+      </c>
+      <c r="B199" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116405.271114134</v>
+      </c>
+      <c r="G199">
+        <v>4841635.301493397</v>
+      </c>
+      <c r="H199">
+        <v>3986237.161328526</v>
+      </c>
+      <c r="I199">
+        <v>1116688.356192377</v>
+      </c>
+      <c r="J199">
+        <v>4841379.405591819</v>
+      </c>
+      <c r="K199">
+        <v>3985259.962501995</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>28</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>20</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116404.575458641</v>
+      </c>
+      <c r="G200">
+        <v>4841651.814308654</v>
+      </c>
+      <c r="H200">
+        <v>3986246.667651399</v>
+      </c>
+      <c r="I200">
+        <v>1116762.992421708</v>
+      </c>
+      <c r="J200">
+        <v>4841330.753954429</v>
+      </c>
+      <c r="K200">
+        <v>3984988.109734712</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>28</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116403.911643588</v>
+      </c>
+      <c r="G201">
+        <v>4841668.32712391</v>
+      </c>
+      <c r="H201">
+        <v>3986255.881969419</v>
+      </c>
+      <c r="I201">
+        <v>1116839.466499522</v>
+      </c>
+      <c r="J201">
+        <v>4841282.102317041</v>
+      </c>
+      <c r="K201">
+        <v>3984701.108326096</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>28</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>20</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116403.27731257</v>
+      </c>
+      <c r="G202">
+        <v>4841684.839939168</v>
+      </c>
+      <c r="H202">
+        <v>3986264.821688237</v>
+      </c>
+      <c r="I202">
+        <v>1116917.823681147</v>
+      </c>
+      <c r="J202">
+        <v>4841233.450679651</v>
+      </c>
+      <c r="K202">
+        <v>3984398.958276147</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>28</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>20</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116402.670346254</v>
+      </c>
+      <c r="G203">
+        <v>4841701.352754424</v>
+      </c>
+      <c r="H203">
+        <v>3986273.50270218</v>
+      </c>
+      <c r="I203">
+        <v>1116998.110336283</v>
+      </c>
+      <c r="J203">
+        <v>4841184.799042262</v>
+      </c>
+      <c r="K203">
+        <v>3984081.659584866</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>28</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" t="s">
+        <v>20</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116402.088832569</v>
+      </c>
+      <c r="G204">
+        <v>4841717.865569681</v>
+      </c>
+      <c r="H204">
+        <v>3986281.939564314</v>
+      </c>
+      <c r="I204">
+        <v>1117080.373976439</v>
+      </c>
+      <c r="J204">
+        <v>4841136.147404874</v>
+      </c>
+      <c r="K204">
+        <v>3983749.212252252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>28</v>
+      </c>
+      <c r="B205" t="s">
+        <v>13</v>
+      </c>
+      <c r="C205" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" t="s">
+        <v>20</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116401.53104137</v>
+      </c>
+      <c r="G205">
+        <v>4841734.378384938</v>
+      </c>
+      <c r="H205">
+        <v>3986290.14563323</v>
+      </c>
+      <c r="I205">
+        <v>1117164.663283052</v>
+      </c>
+      <c r="J205">
+        <v>4841087.495767484</v>
+      </c>
+      <c r="K205">
+        <v>3983401.616278304</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>28</v>
+      </c>
+      <c r="B206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" t="s">
+        <v>20</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116400.995402768</v>
+      </c>
+      <c r="G206">
+        <v>4841750.891200195</v>
+      </c>
+      <c r="H206">
+        <v>3986298.133200293</v>
+      </c>
+      <c r="I206">
+        <v>1117251.028136296</v>
+      </c>
+      <c r="J206">
+        <v>4841038.844130095</v>
+      </c>
+      <c r="K206">
+        <v>3983038.871663025</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>28</v>
+      </c>
+      <c r="B207" t="s">
+        <v>13</v>
+      </c>
+      <c r="C207" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" t="s">
+        <v>20</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116400.480488544</v>
+      </c>
+      <c r="G207">
+        <v>4841767.404015453</v>
+      </c>
+      <c r="H207">
+        <v>3986305.913600379</v>
+      </c>
+      <c r="I207">
+        <v>1117339.519644598</v>
+      </c>
+      <c r="J207">
+        <v>4840990.192492707</v>
+      </c>
+      <c r="K207">
+        <v>3982660.978406411</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>28</v>
+      </c>
+      <c r="B208" t="s">
+        <v>13</v>
+      </c>
+      <c r="C208" t="s">
+        <v>17</v>
+      </c>
+      <c r="D208" t="s">
+        <v>20</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116399.984996127</v>
+      </c>
+      <c r="G208">
+        <v>4841783.916830708</v>
+      </c>
+      <c r="H208">
+        <v>3986313.497308616</v>
+      </c>
+      <c r="I208">
+        <v>1117430.19017488</v>
+      </c>
+      <c r="J208">
+        <v>4840941.540855318</v>
+      </c>
+      <c r="K208">
+        <v>3982267.936508466</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>28</v>
+      </c>
+      <c r="B209" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" t="s">
+        <v>20</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116399.507734733</v>
+      </c>
+      <c r="G209">
+        <v>4841800.429645966</v>
+      </c>
+      <c r="H209">
+        <v>3986320.894025191</v>
+      </c>
+      <c r="I209">
+        <v>1117523.093383555</v>
+      </c>
+      <c r="J209">
+        <v>4840892.889217928</v>
+      </c>
+      <c r="K209">
+        <v>3981859.745969187</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>28</v>
+      </c>
+      <c r="B210" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116399.047613329</v>
+      </c>
+      <c r="G210">
+        <v>4841816.942461223</v>
+      </c>
+      <c r="H210">
+        <v>3986328.112749954</v>
+      </c>
+      <c r="I210">
+        <v>1117618.284248274</v>
+      </c>
+      <c r="J210">
+        <v>4840844.23758054</v>
+      </c>
+      <c r="K210">
+        <v>3981436.406788575</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>28</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211" t="s">
+        <v>17</v>
+      </c>
+      <c r="D211" t="s">
+        <v>20</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116398.603630138</v>
+      </c>
+      <c r="G211">
+        <v>4841833.455276479</v>
+      </c>
+      <c r="H211">
+        <v>3986335.161848256</v>
+      </c>
+      <c r="I211">
+        <v>1117715.819100463</v>
+      </c>
+      <c r="J211">
+        <v>4840795.585943151</v>
+      </c>
+      <c r="K211">
+        <v>3980997.918966631</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>28</v>
+      </c>
+      <c r="B212" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" t="s">
+        <v>20</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116398.174863472</v>
+      </c>
+      <c r="G212">
+        <v>4841849.968091737</v>
+      </c>
+      <c r="H212">
+        <v>3986342.049109223</v>
+      </c>
+      <c r="I212">
+        <v>1117815.755658657</v>
+      </c>
+      <c r="J212">
+        <v>4840746.934305762</v>
+      </c>
+      <c r="K212">
+        <v>3980544.282503353</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>28</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C213" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116397.76046368</v>
+      </c>
+      <c r="G213">
+        <v>4841866.480906994</v>
+      </c>
+      <c r="H213">
+        <v>3986348.781797493</v>
+      </c>
+      <c r="I213">
+        <v>1117918.153062657</v>
+      </c>
+      <c r="J213">
+        <v>4840698.282668373</v>
+      </c>
+      <c r="K213">
+        <v>3980075.497398744</v>
       </c>
     </row>
   </sheetData>
